--- a/総合テスト/総合テスト仕様書.xlsx
+++ b/総合テスト/総合テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riku.yamashita\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F51CE248-94A8-4113-9CFA-04C4FE0F8154}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD75F781-7A0B-4F42-BE81-9AA06FEABB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
   </bookViews>
@@ -148,6 +148,14 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>商品A =(productId: 1, name:"シンプルデスクオーガナイザー", price:3500, stock:20)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品B =(productId: 2, name: アロマディフューザー（ウッド）, price: 2000, stock: 5)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>・テスト開始時、カートは空の状態であること（必要に応じてテスト前にクリアする）。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -943,6 +951,16 @@
   </si>
   <si>
     <t>カートモーダルから注文手続きへ進めるか</t>
+  </si>
+  <si>
+    <t>商品A x1, 商品B x1 がカートに入っている (バッジ=2)</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. カートモーダルを表示する。
@@ -1162,6 +1180,19 @@
   </si>
   <si>
     <t>在庫が不足している商品を注文しようとした場合</t>
+  </si>
+  <si>
+    <t>商品Bの在庫を事前に0にする。カートに商品A x1, 商品B x1。</t>
+    <rPh sb="0" eb="2">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ショウヒン</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>ショウヒン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. ST-O-001, ST-O-002 の手順を行う。
@@ -1347,6 +1378,14 @@
     <t>ログイン画面表示からログイン完了までの統合動作</t>
   </si>
   <si>
+    <t>1. /admin/login にアクセス2. ログイン画面の表示確認3. 正しい認証情報を入力4. ログインボタンクリック</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ログイン画面が正常に表示されること2. 入力フォームが正常に動作すること3. 認証処理が正常に実行されること4. ダッシュボードに正常にリダイレクトされること5. セッションに管理者情報が保存されること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ST-A-002</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1360,6 +1399,14 @@
     <t>ログイン画面表示中</t>
   </si>
   <si>
+    <t>1. 間違った認証情報を入力2. ログインボタンクリック3. エラーメッセージの表示確認4. 再入力可能性の確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 適切なエラーメッセージが画面に表示されること2. ログイン画面が維持されること3. 入力フォームがクリアまたは再入力可能であること4. セッションに認証情報が保存されないこと</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ST-A-003</t>
   </si>
   <si>
@@ -1372,6 +1419,14 @@
     <t>管理者がログイン済</t>
   </si>
   <si>
+    <t>1. ログイン状態で /admin/login にアクセス2. リダイレクト動作の確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 自動的にダッシュボードにリダイレクトされること2. ログイン画面が表示されないこと3. セッション情報が維持されること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ST-A-004</t>
   </si>
   <si>
@@ -1384,6 +1439,14 @@
     <t>管理者がログイン済、商品データ存在</t>
   </si>
   <si>
+    <t>1. /admin/dashboard にアクセス2. 画面表示の確認3. 商品一覧表示の確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ダッシュボード画面が正常に表示されること2. データベースから取得した商品一覧が表示されること3. 各商品にID、名前等の情報が含まれること4. コンソールに商品件数ログが出力されること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ST-A-005</t>
   </si>
   <si>
@@ -1396,6 +1459,14 @@
     <t>管理者が未ログイン</t>
   </si>
   <si>
+    <t>1. セッションクリア2. /admin/dashboard に直接アクセス3. リダイレクト動作確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 自動的にログイン画面にリダイレクトされること2. ダッシュボード内容が表示されないこと3. 管理者情報が漏洩しないこと</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ST-A-006</t>
   </si>
   <si>
@@ -1408,6 +1479,14 @@
     <t>管理者ログイン済、複数商品データ存在</t>
   </si>
   <si>
+    <t>1. ダッシュボードにアクセス2. 商品一覧の表示内容確認3. 商品データの完全性確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. ProductService経由で商品データが取得されること2. 全商品が一覧に表示されること3. 各商品のID、名前が正確に表示されること4. データベースの商品数と画面表示数が一致すること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ST-A-007</t>
   </si>
   <si>
@@ -1417,6 +1496,14 @@
     <t>ログイン状態の複数リクエスト間での維持</t>
   </si>
   <si>
+    <t>1. ダッシュボードにアクセス2. ブラウザ更新3. 別URLに移動後、ダッシュボードに戻る4. セッション状態の確認</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 全操作でログイン状態が維持されること2. 再認証が要求されないこと3. 管理者情報が一貫して表示されること</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ST-A-008</t>
   </si>
   <si>
@@ -1427,6 +1514,14 @@
   </si>
   <si>
     <t>セッション処理異常状態</t>
+  </si>
+  <si>
+    <t>1. セッション破損状態でアクセス2. セッションタイムアウト状態でアクセス3. 不正セッションでのアクセス</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 適切にログイン画面にリダイレクトされること2. セッションエラーが適切に処理されること3. 新しいセッション開始が可能であること</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>5. カテゴリ別表示機能</t>
@@ -1721,7 +1816,6 @@
     <t>1. スクリプトが実行されず、アラートが表示されないこと。
 2. 入力されたスクリプトが無害化されてDBに保存されるか、バリデーションエラーとなること。
 3. (もし入力値が画面に再表示される場合) スクリプトがエスケープ処理されて表示されること。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ST-NF-004</t>
@@ -1734,6 +1828,12 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>大量の商品データが存在する場合でも、商品一覧API (</t>
     </r>
     <r>
@@ -1741,8 +1841,6 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>/api/products</t>
@@ -1752,8 +1850,6 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>) の応答時間が許容範囲内であること</t>
@@ -1807,6 +1903,10 @@
   <si>
     <t>1. 目標とするスループット (例: 50 TPS) を達成できること。
 2. エラー率が目標値 (例: 0.1%) 未満であること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ST-NF-006</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1825,105 +1925,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 処理の開始・終了、重要なパラメータ（注文ID、顧客IDなど）、エラー発生時の詳細情報などがログに出力されていること。</t>
-  </si>
-  <si>
-    <t>商品A =(productId: 1, name:"シンプルデスクオーガナイザー", price:3500, stock:20)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品B =(productId: 2, name: アロマディフューザー（ウッド）, price: 2000, stock: 5)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品A x1, 商品B x1 がカートに入っている (バッジ=2)</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品Bの在庫を事前に0にする。カートに商品A x1, 商品B x1。</t>
-    <rPh sb="0" eb="2">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>ショウヒン</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>ショウヒン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ST-NF-006</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. /admin/login にアクセス2. ログイン画面の表示確認3. 正しい認証情報を入力4. ログインボタンクリック</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 間違った認証情報を入力2. ログインボタンクリック3. エラーメッセージの表示確認4. 再入力可能性の確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. ログイン状態で /admin/login にアクセス2. リダイレクト動作の確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. /admin/dashboard にアクセス2. 画面表示の確認3. 商品一覧表示の確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. セッションクリア2. /admin/dashboard に直接アクセス3. リダイレクト動作確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. ダッシュボードにアクセス2. 商品一覧の表示内容確認3. 商品データの完全性確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. ダッシュボードにアクセス2. ブラウザ更新3. 別URLに移動後、ダッシュボードに戻る4. セッション状態の確認</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. セッション破損状態でアクセス2. セッションタイムアウト状態でアクセス3. 不正セッションでのアクセス</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. ログイン画面が正常に表示されること2. 入力フォームが正常に動作すること3. 認証処理が正常に実行されること4. ダッシュボードに正常にリダイレクトされること5. セッションに管理者情報が保存されること</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 適切なエラーメッセージが画面に表示されること2. ログイン画面が維持されること3. 入力フォームがクリアまたは再入力可能であること4. セッションに認証情報が保存されないこと</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 自動的にダッシュボードにリダイレクトされること2. ログイン画面が表示されないこと3. セッション情報が維持されること</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. ダッシュボード画面が正常に表示されること2. データベースから取得した商品一覧が表示されること3. 各商品にID、名前等の情報が含まれること4. コンソールに商品件数ログが出力されること</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 自動的にログイン画面にリダイレクトされること2. ダッシュボード内容が表示されないこと3. 管理者情報が漏洩しないこと</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. ProductService経由で商品データが取得されること2. 全商品が一覧に表示されること3. 各商品のID、名前が正確に表示されること4. データベースの商品数と画面表示数が一致すること</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 全操作でログイン状態が維持されること2. 再認証が要求されないこと3. 管理者情報が一貫して表示されること</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 適切にログイン画面にリダイレクトされること2. セッションエラーが適切に処理されること3. 新しいセッション開始が可能であること</t>
+    <t>1. 処理の開始・終了、重要なパラメータ（注文IDなど）、エラー発生時の詳細情報などがログに出力されていること。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1931,7 +1933,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1992,15 +1994,19 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
+      <name val="Aptos Narrow"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
       <name val="游ゴシック"/>
-      <family val="3"/>
-      <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
-      <name val="Aptos Narrow"/>
+      <color rgb="FF000000"/>
+      <name val="游ゴシック"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -2150,7 +2156,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2197,12 +2203,6 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2243,6 +2243,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2580,8 +2583,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5E3F2-C487-43AA-A38B-87CA8BE4C9AD}">
   <dimension ref="B1:J94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J94" sqref="J94"/>
+    <sheetView tabSelected="1" topLeftCell="C90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G94" sqref="G94"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2645,888 +2648,888 @@
     </row>
     <row r="11" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="3" t="s">
-        <v>314</v>
+        <v>8</v>
       </c>
     </row>
     <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="3" t="s">
-        <v>315</v>
+        <v>9</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D18" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E19" s="9" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="F19" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>23</v>
+        <v>24</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>25</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
     </row>
     <row r="20" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E20" s="9" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F20" s="9" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="8" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E21" s="9" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="F21" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="8" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="23" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D23" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>46</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="8" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E24" s="9" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="F24" s="9" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H27" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="28" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="8" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E28" s="9" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F28" s="9" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="29" spans="2:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="8" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E29" s="9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="F29" s="9" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="30" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E30" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F30" s="9" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
     </row>
     <row r="31" spans="2:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="C31" s="11" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D31" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="H31" s="17" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" s="9" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="17" t="s">
-        <v>78</v>
+        <v>79</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="2:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B33" s="8" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>82</v>
-      </c>
       <c r="H34" s="10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="8" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="8" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>102</v>
-      </c>
-      <c r="H37" s="17" t="s">
-        <v>103</v>
+        <v>104</v>
+      </c>
+      <c r="H37" s="15" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="8" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="96" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="8" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="8" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="11" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D45" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F45" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G45" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H45" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="46" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>316</v>
+        <v>136</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="117" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="8" t="s">
+        <v>140</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>137</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>143</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>139</v>
-      </c>
       <c r="G48" s="10" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="8" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="8" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="8" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="246" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="8" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="159" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="8" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>317</v>
+        <v>173</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="8" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>179</v>
-      </c>
-      <c r="G56" s="17" t="s">
-        <v>180</v>
+        <v>183</v>
+      </c>
+      <c r="G56" s="15" t="s">
+        <v>184</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="127.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="8" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -3540,214 +3543,214 @@
     </row>
     <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="2" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H61" s="22" t="s">
-        <v>17</v>
+        <v>18</v>
+      </c>
+      <c r="H61" s="20" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="8" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="G62" s="25" t="s">
-        <v>319</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>327</v>
+        <v>24</v>
+      </c>
+      <c r="G62" s="23" t="s">
+        <v>200</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E63" s="19" t="s">
-        <v>198</v>
+        <v>22</v>
+      </c>
+      <c r="E63" s="17" t="s">
+        <v>204</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>199</v>
-      </c>
-      <c r="G63" s="25" t="s">
-        <v>320</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>328</v>
+        <v>205</v>
+      </c>
+      <c r="G63" s="23" t="s">
+        <v>206</v>
+      </c>
+      <c r="H63" s="26" t="s">
+        <v>207</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="8" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>203</v>
-      </c>
-      <c r="G64" s="25" t="s">
-        <v>321</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>329</v>
+        <v>211</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>213</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="8" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>206</v>
+        <v>216</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>207</v>
-      </c>
-      <c r="G65" s="25" t="s">
-        <v>322</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>330</v>
+        <v>217</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>219</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="8" t="s">
-        <v>208</v>
+        <v>220</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>209</v>
+        <v>221</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>210</v>
+        <v>222</v>
       </c>
       <c r="F66" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="G66" s="25" t="s">
-        <v>323</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C67" s="21" t="s">
-        <v>213</v>
-      </c>
-      <c r="D67" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E67" s="21" t="s">
-        <v>214</v>
-      </c>
-      <c r="F67" s="21" t="s">
-        <v>215</v>
-      </c>
-      <c r="G67" s="26" t="s">
-        <v>324</v>
-      </c>
-      <c r="H67" s="28" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="21" t="s">
-        <v>216</v>
-      </c>
-      <c r="C68" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="D68" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E68" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="F68" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="G68" s="27" t="s">
-        <v>325</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>333</v>
+      <c r="G68" s="25" t="s">
+        <v>235</v>
+      </c>
+      <c r="H68" s="26" t="s">
+        <v>236</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B69" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="C69" s="24" t="s">
-        <v>220</v>
-      </c>
-      <c r="D69" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E69" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="F69" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="G69" s="27" t="s">
-        <v>326</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>334</v>
+      <c r="B69" s="18" t="s">
+        <v>237</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>238</v>
+      </c>
+      <c r="D69" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="E69" s="21" t="s">
+        <v>239</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="G69" s="25" t="s">
+        <v>241</v>
+      </c>
+      <c r="H69" s="26" t="s">
+        <v>242</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -3761,457 +3764,457 @@
     </row>
     <row r="71" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="2" t="s">
-        <v>223</v>
+        <v>243</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D72" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E72" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F72" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G72" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H72" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="73" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="8" t="s">
-        <v>224</v>
+        <v>244</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D73" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E73" s="18" t="s">
-        <v>226</v>
-      </c>
-      <c r="F73" s="18" t="s">
-        <v>227</v>
-      </c>
-      <c r="G73" s="18" t="s">
-        <v>228</v>
-      </c>
-      <c r="H73" s="18" t="s">
-        <v>229</v>
+        <v>245</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>249</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="37" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="8" t="s">
-        <v>230</v>
+        <v>250</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D74" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E74" s="18" t="s">
-        <v>231</v>
-      </c>
-      <c r="F74" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="G74" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="H74" s="18" t="s">
-        <v>234</v>
+        <v>245</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>254</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="8" t="s">
-        <v>235</v>
+        <v>255</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D75" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="E75" s="18" t="s">
-        <v>236</v>
-      </c>
-      <c r="F75" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="G75" s="18" t="s">
-        <v>238</v>
-      </c>
-      <c r="H75" s="18" t="s">
-        <v>239</v>
+        <v>245</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>259</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="36.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="8" t="s">
-        <v>240</v>
+        <v>260</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D76" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E76" s="18" t="s">
-        <v>241</v>
-      </c>
-      <c r="F76" s="18" t="s">
-        <v>242</v>
-      </c>
-      <c r="G76" s="18" t="s">
-        <v>243</v>
-      </c>
-      <c r="H76" s="18" t="s">
-        <v>244</v>
+        <v>245</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>264</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="8" t="s">
         <v>245</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="D77" s="18" t="s">
-        <v>26</v>
-      </c>
-      <c r="E77" s="18" t="s">
-        <v>246</v>
-      </c>
-      <c r="F77" s="18" t="s">
-        <v>247</v>
-      </c>
-      <c r="G77" s="18" t="s">
-        <v>248</v>
-      </c>
-      <c r="H77" s="18" t="s">
-        <v>249</v>
+      <c r="D77" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="2" t="s">
-        <v>250</v>
+        <v>270</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D80" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E80" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F80" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G80" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H80" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="81" spans="2:10" ht="180" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="8" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>252</v>
+        <v>272</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="E81" s="9" t="s">
-        <v>254</v>
+        <v>274</v>
       </c>
       <c r="F81" s="9" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>256</v>
+        <v>276</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>257</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="2:10" ht="164.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="8" t="s">
-        <v>258</v>
+        <v>278</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>259</v>
+        <v>279</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="E82" s="9" t="s">
-        <v>260</v>
+        <v>280</v>
       </c>
       <c r="F82" s="9" t="s">
-        <v>255</v>
+        <v>275</v>
       </c>
       <c r="G82" s="10" t="s">
-        <v>261</v>
+        <v>281</v>
       </c>
       <c r="H82" s="10" t="s">
-        <v>262</v>
+        <v>282</v>
       </c>
     </row>
     <row r="83" spans="2:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="8" t="s">
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>264</v>
+        <v>284</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="E83" s="9" t="s">
-        <v>265</v>
+        <v>285</v>
       </c>
       <c r="F83" s="9" t="s">
-        <v>266</v>
+        <v>286</v>
       </c>
       <c r="G83" s="10" t="s">
-        <v>267</v>
+        <v>287</v>
       </c>
       <c r="H83" s="10" t="s">
-        <v>268</v>
+        <v>288</v>
       </c>
     </row>
     <row r="84" spans="2:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="8" t="s">
-        <v>269</v>
+        <v>289</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>270</v>
+        <v>290</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="E84" s="9" t="s">
-        <v>271</v>
+        <v>291</v>
       </c>
       <c r="F84" s="9" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="G84" s="10" t="s">
-        <v>273</v>
+        <v>293</v>
       </c>
       <c r="H84" s="10" t="s">
-        <v>274</v>
+        <v>294</v>
       </c>
     </row>
     <row r="85" spans="2:10" ht="123.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="8" t="s">
-        <v>275</v>
+        <v>295</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>276</v>
+        <v>296</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>253</v>
+        <v>273</v>
       </c>
       <c r="E85" s="9" t="s">
-        <v>277</v>
+        <v>297</v>
       </c>
       <c r="F85" s="9" t="s">
-        <v>278</v>
+        <v>298</v>
       </c>
       <c r="G85" s="10" t="s">
-        <v>279</v>
+        <v>299</v>
       </c>
       <c r="H85" s="10" t="s">
-        <v>280</v>
+        <v>300</v>
       </c>
     </row>
     <row r="87" spans="2:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="2" t="s">
-        <v>281</v>
+        <v>301</v>
       </c>
     </row>
     <row r="88" spans="2:10" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="6" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D88" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E88" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F88" s="7" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="G88" s="7" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="H88" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="89" spans="2:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="8" t="s">
-        <v>282</v>
+        <v>302</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>283</v>
+        <v>303</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>284</v>
+        <v>304</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>285</v>
+        <v>305</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>286</v>
+        <v>306</v>
       </c>
     </row>
     <row r="90" spans="2:10" ht="133.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="8" t="s">
-        <v>287</v>
+        <v>307</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>288</v>
+        <v>308</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>289</v>
+        <v>309</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>290</v>
+        <v>310</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>291</v>
+        <v>311</v>
       </c>
     </row>
     <row r="91" spans="2:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="8" t="s">
-        <v>292</v>
+        <v>312</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>293</v>
+        <v>313</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>294</v>
+        <v>314</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>295</v>
+        <v>315</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>296</v>
+        <v>316</v>
       </c>
     </row>
     <row r="92" spans="2:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="11" t="s">
-        <v>297</v>
+        <v>317</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>298</v>
+        <v>318</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>299</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>300</v>
+        <v>319</v>
+      </c>
+      <c r="E92" s="29" t="s">
+        <v>320</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>301</v>
+        <v>321</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>302</v>
+        <v>322</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>303</v>
+        <v>323</v>
       </c>
     </row>
     <row r="93" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="8" t="s">
-        <v>304</v>
+        <v>324</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>305</v>
+        <v>325</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>299</v>
+        <v>319</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>306</v>
+        <v>326</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>307</v>
+        <v>327</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>308</v>
+        <v>328</v>
       </c>
     </row>
     <row r="94" spans="2:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="8" t="s">
-        <v>318</v>
+        <v>329</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>309</v>
+        <v>330</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>310</v>
+        <v>331</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>311</v>
+        <v>332</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>312</v>
+        <v>333</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>313</v>
-      </c>
-      <c r="I94" s="29"/>
-      <c r="J94" s="30"/>
+        <v>334</v>
+      </c>
+      <c r="I94" s="27"/>
+      <c r="J94" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4407,15 +4410,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD63C88E-B181-4E7E-99E9-22F3DCB37E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/総合テスト/総合テスト仕様書.xlsx
+++ b/総合テスト/総合テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riku.yamashita\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BD75F781-7A0B-4F42-BE81-9AA06FEABB5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F0BC75-C921-49D8-ABC8-D8ACD3FCDA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
   </bookViews>
@@ -152,10 +152,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品B =(productId: 2, name: アロマディフューザー（ウッド）, price: 2000, stock: 5)</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>・テスト開始時、カートは空の状態であること（必要に応じてテスト前にクリアする）。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -1383,7 +1379,6 @@
   </si>
   <si>
     <t>1. ログイン画面が正常に表示されること2. 入力フォームが正常に動作すること3. 認証処理が正常に実行されること4. ダッシュボードに正常にリダイレクトされること5. セッションに管理者情報が保存されること</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ST-A-002</t>
@@ -1926,6 +1921,10 @@
   </si>
   <si>
     <t>1. 処理の開始・終了、重要なパラメータ（注文IDなど）、エラー発生時の詳細情報などがログに出力されていること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品B =(productId: 2, name: アロマディフューザー（ウッド）, price: 4200, stock: 15)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2156,7 +2155,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2240,9 +2239,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2581,10 +2577,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5E3F2-C487-43AA-A38B-87CA8BE4C9AD}">
-  <dimension ref="B1:J94"/>
+  <dimension ref="B1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C90" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G94" sqref="G94"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2653,883 +2649,883 @@
     </row>
     <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="3" t="s">
-        <v>9</v>
+        <v>334</v>
       </c>
     </row>
     <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="6" t="s">
+      <c r="D18" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="E18" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="F18" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="G18" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="H18" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="7" t="s">
+    </row>
+    <row r="19" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B19" s="8" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="8" t="s">
+      <c r="C19" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="8" t="s">
+      <c r="D19" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="8" t="s">
+      <c r="E19" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="F19" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="F19" s="9" t="s">
+      <c r="G19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="G19" s="9" t="s">
+      <c r="H19" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="H19" s="10" t="s">
+    </row>
+    <row r="20" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B20" s="8" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" ht="54" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="8" t="s">
+      <c r="C20" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="C20" s="8" t="s">
+      <c r="E20" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B21" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="D20" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="F20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="8" t="s">
+      <c r="E21" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B22" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E21" s="9" t="s">
+      <c r="D22" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="F22" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>37</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E22" s="9" t="s">
+      <c r="G22" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="F22" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="G22" s="9" t="s">
+      <c r="H22" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="H22" s="10" t="s">
+    </row>
+    <row r="23" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B23" s="11" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="2:8" ht="40.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="11" t="s">
+      <c r="C23" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E23" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="C23" s="11" t="s">
-        <v>34</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E23" s="10" t="s">
+      <c r="F23" s="10" t="s">
         <v>44</v>
       </c>
-      <c r="F23" s="10" t="s">
+      <c r="G23" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="G23" s="10" t="s">
+      <c r="H23" s="10" t="s">
         <v>46</v>
       </c>
-      <c r="H23" s="10" t="s">
+    </row>
+    <row r="24" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B24" s="8" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="24" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="8" t="s">
+      <c r="C24" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="C24" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E24" s="9" t="s">
+      <c r="F24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F24" s="9" t="s">
+      <c r="G24" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="G24" s="10" t="s">
+      <c r="H24" s="10" t="s">
         <v>51</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C27" s="6" t="s">
+      <c r="D27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="E27" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="H27" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="2:8" ht="80.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="28" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C28" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="C28" s="8" t="s">
+      <c r="D28" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" s="9" t="s">
         <v>55</v>
       </c>
-      <c r="D28" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E28" s="9" t="s">
+      <c r="F28" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F28" s="9" t="s">
+      <c r="G28" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="10" t="s">
+      <c r="H28" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="10" t="s">
+    </row>
+    <row r="29" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B29" s="8" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29" spans="2:8" ht="76.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="8" t="s">
+      <c r="C29" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="C29" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E29" s="9" t="s">
+      <c r="F29" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="F29" s="9" t="s">
+      <c r="G29" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G29" s="10" t="s">
+      <c r="H29" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H29" s="10" t="s">
+    </row>
+    <row r="30" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B30" s="8" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="2:8" ht="60.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="8" t="s">
+      <c r="C30" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="9" t="s">
         <v>65</v>
       </c>
-      <c r="C30" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E30" s="9" t="s">
+      <c r="F30" s="9" t="s">
         <v>66</v>
       </c>
-      <c r="F30" s="9" t="s">
+      <c r="G30" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="G30" s="10" t="s">
+      <c r="H30" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="H30" s="10" t="s">
+    </row>
+    <row r="31" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B31" s="11" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="31" spans="2:8" ht="137.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="11" t="s">
+      <c r="C31" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="C31" s="11" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E31" s="10" t="s">
+      <c r="F31" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="F31" s="10" t="s">
+      <c r="G31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="15" t="s">
+    </row>
+    <row r="32" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="8" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" ht="125.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="8" t="s">
+      <c r="C32" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="C32" s="8" t="s">
+      <c r="D32" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="D32" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E32" s="9" t="s">
+      <c r="F32" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="G32" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="9" t="s">
+      <c r="H32" s="15" t="s">
         <v>79</v>
       </c>
-      <c r="H32" s="15" t="s">
+    </row>
+    <row r="33" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="8" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="33" spans="2:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="8" t="s">
+      <c r="C33" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C33" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E33" s="9" t="s">
+      <c r="F33" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H33" s="10" t="s">
+    </row>
+    <row r="34" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="8" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="34" spans="2:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="8" t="s">
+      <c r="C34" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="C34" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E34" s="9" t="s">
+      <c r="F34" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="10" t="s">
+    </row>
+    <row r="35" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" ht="63.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="C35" s="8" t="s">
+      <c r="D35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="D35" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E35" s="9" t="s">
+      <c r="F35" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="10" t="s">
+    </row>
+    <row r="36" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="8" t="s">
+      <c r="C36" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>96</v>
       </c>
-      <c r="C36" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E36" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="10" t="s">
+    </row>
+    <row r="37" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" ht="104.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="8" t="s">
+      <c r="C37" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" s="9" t="s">
         <v>101</v>
       </c>
-      <c r="C37" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E37" s="9" t="s">
+      <c r="F37" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="G37" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="H37" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="H37" s="15" t="s">
+    </row>
+    <row r="38" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" ht="96.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="8" t="s">
+      <c r="C38" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E38" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="C38" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E38" s="9" t="s">
+      <c r="F38" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="G38" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="10" t="s">
+      <c r="H38" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="H38" s="10" t="s">
+    </row>
+    <row r="39" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="8" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="8" t="s">
+      <c r="C39" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="C39" s="8" t="s">
+      <c r="D39" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E39" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="D39" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E39" s="9" t="s">
+      <c r="F39" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="10" t="s">
+      <c r="H39" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="10" t="s">
+    </row>
+    <row r="40" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="8" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" ht="96" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="8" t="s">
+      <c r="C40" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" s="9" t="s">
         <v>116</v>
       </c>
-      <c r="C40" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E40" s="9" t="s">
+      <c r="F40" s="9" t="s">
         <v>117</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="G40" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G40" s="10" t="s">
+      <c r="H40" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H40" s="10" t="s">
+    </row>
+    <row r="41" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="8" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="41" spans="2:8" ht="150.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="8" t="s">
+      <c r="C41" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D41" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E41" s="9" t="s">
         <v>121</v>
       </c>
-      <c r="C41" s="8" t="s">
-        <v>76</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E41" s="9" t="s">
+      <c r="F41" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="9" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" s="9" t="s">
+      <c r="H41" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="10" t="s">
+    </row>
+    <row r="42" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" ht="70.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="11" t="s">
+      <c r="C42" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="F42" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G42" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C45" s="6" t="s">
+      <c r="D45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D45" s="6" t="s">
+      <c r="E45" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E45" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F45" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G45" s="7" t="s">
+      <c r="H45" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H45" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="60" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="46" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="8" t="s">
+        <v>132</v>
+      </c>
+      <c r="C46" s="8" t="s">
         <v>133</v>
       </c>
-      <c r="C46" s="8" t="s">
+      <c r="D46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="D46" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E46" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>135</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="G46" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="10" t="s">
+      <c r="H46" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H46" s="10" t="s">
+    </row>
+    <row r="47" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="8" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="47" spans="2:8" ht="117" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B47" s="8" t="s">
+      <c r="C47" s="8" t="s">
         <v>139</v>
       </c>
-      <c r="C47" s="8" t="s">
+      <c r="D47" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E47" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="D47" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E47" s="9" t="s">
+      <c r="F47" s="9" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="G47" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G47" s="10" t="s">
+      <c r="H47" s="10" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="10" t="s">
+    </row>
+    <row r="48" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="8" t="s">
         <v>144</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" ht="120.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="8" t="s">
+      <c r="C48" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D48" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E48" s="9" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E48" s="9" t="s">
+      <c r="F48" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G48" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G48" s="10" t="s">
+      <c r="H48" s="10" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="10" t="s">
+    </row>
+    <row r="49" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="8" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="49" spans="2:8" ht="68.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B49" s="8" t="s">
+      <c r="C49" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D49" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E49" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="C49" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D49" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E49" s="9" t="s">
+      <c r="F49" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G49" s="10" t="s">
+      <c r="H49" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="H49" s="10" t="s">
+    </row>
+    <row r="50" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="8" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="50" spans="2:8" ht="101.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B50" s="8" t="s">
+      <c r="C50" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E50" s="9" t="s">
         <v>153</v>
       </c>
-      <c r="C50" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D50" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E50" s="9" t="s">
+      <c r="F50" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G50" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G50" s="10" t="s">
+      <c r="H50" s="10" t="s">
         <v>155</v>
       </c>
-      <c r="H50" s="10" t="s">
+    </row>
+    <row r="51" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="8" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="51" spans="2:8" ht="83.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B51" s="8" t="s">
+      <c r="C51" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D51" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E51" s="9" t="s">
         <v>157</v>
       </c>
-      <c r="C51" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D51" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E51" s="9" t="s">
+      <c r="F51" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G51" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="10" t="s">
+      <c r="H51" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="H51" s="10" t="s">
+    </row>
+    <row r="52" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="8" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="52" spans="2:8" ht="98.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B52" s="8" t="s">
+      <c r="C52" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D52" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E52" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="C52" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D52" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E52" s="9" t="s">
+      <c r="F52" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G52" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G52" s="10" t="s">
+      <c r="H52" s="10" t="s">
         <v>163</v>
       </c>
-      <c r="H52" s="10" t="s">
+    </row>
+    <row r="53" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="8" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="53" spans="2:8" ht="246" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B53" s="8" t="s">
+      <c r="C53" s="8" t="s">
         <v>165</v>
       </c>
-      <c r="C53" s="8" t="s">
+      <c r="D53" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E53" s="9" t="s">
         <v>166</v>
       </c>
-      <c r="D53" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E53" s="9" t="s">
+      <c r="F53" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="G53" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="H53" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="H53" s="10" t="s">
+    </row>
+    <row r="54" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="8" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="54" spans="2:8" ht="159" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="8" t="s">
+      <c r="C54" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D54" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E54" s="9" t="s">
         <v>171</v>
       </c>
-      <c r="C54" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D54" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E54" s="9" t="s">
+      <c r="F54" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="G54" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G54" s="10" t="s">
+      <c r="H54" s="10" t="s">
         <v>174</v>
       </c>
-      <c r="H54" s="10" t="s">
+    </row>
+    <row r="55" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="8" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="55" spans="2:8" ht="72" x14ac:dyDescent="0.55000000000000004">
-      <c r="B55" s="8" t="s">
+      <c r="C55" s="8" t="s">
+        <v>165</v>
+      </c>
+      <c r="D55" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E55" s="9" t="s">
         <v>176</v>
       </c>
-      <c r="C55" s="8" t="s">
-        <v>166</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E55" s="9" t="s">
+      <c r="F55" s="9" t="s">
         <v>177</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="G55" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="G55" s="10" t="s">
+      <c r="H55" s="10" t="s">
         <v>179</v>
       </c>
-      <c r="H55" s="10" t="s">
+    </row>
+    <row r="56" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="11" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B56" s="11" t="s">
+      <c r="C56" s="11" t="s">
+        <v>165</v>
+      </c>
+      <c r="D56" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E56" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C56" s="11" t="s">
-        <v>166</v>
-      </c>
-      <c r="D56" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="E56" s="10" t="s">
+      <c r="F56" s="10" t="s">
         <v>182</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="G56" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="G56" s="15" t="s">
+      <c r="H56" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="H56" s="10" t="s">
+    </row>
+    <row r="57" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="8" t="s">
         <v>185</v>
       </c>
-    </row>
-    <row r="57" spans="2:8" ht="127.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B57" s="8" t="s">
+      <c r="C57" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D57" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="C57" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D57" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E57" s="9" t="s">
+      <c r="F57" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G57" s="9" t="s">
+      <c r="H57" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="10" t="s">
+    </row>
+    <row r="58" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="8" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="58" spans="2:8" ht="84.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B58" s="8" t="s">
+      <c r="C58" s="8" t="s">
         <v>190</v>
       </c>
-      <c r="C58" s="8" t="s">
+      <c r="D58" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E58" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="D58" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E58" s="9" t="s">
+      <c r="F58" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="G58" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="H58" s="10" t="s">
         <v>194</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -3543,214 +3539,214 @@
     </row>
     <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C61" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C61" s="6" t="s">
+      <c r="D61" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D61" s="6" t="s">
+      <c r="E61" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E61" s="7" t="s">
+      <c r="F61" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="7" t="s">
+      <c r="G61" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G61" s="7" t="s">
+      <c r="H61" s="20" t="s">
         <v>18</v>
-      </c>
-      <c r="H61" s="20" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="62" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="8" t="s">
+        <v>196</v>
+      </c>
+      <c r="C62" s="8" t="s">
         <v>197</v>
       </c>
-      <c r="C62" s="8" t="s">
+      <c r="D62" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E62" s="8" t="s">
         <v>198</v>
       </c>
-      <c r="D62" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E62" s="8" t="s">
+      <c r="F62" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G62" s="23" t="s">
         <v>199</v>
       </c>
-      <c r="F62" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="G62" s="23" t="s">
+      <c r="H62" s="26" t="s">
         <v>200</v>
-      </c>
-      <c r="H62" s="26" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="8" t="s">
+        <v>201</v>
+      </c>
+      <c r="C63" s="8" t="s">
         <v>202</v>
       </c>
-      <c r="C63" s="8" t="s">
+      <c r="D63" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E63" s="17" t="s">
         <v>203</v>
       </c>
-      <c r="D63" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E63" s="17" t="s">
+      <c r="F63" s="8" t="s">
         <v>204</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="G63" s="23" t="s">
         <v>205</v>
       </c>
-      <c r="G63" s="23" t="s">
+      <c r="H63" s="26" t="s">
         <v>206</v>
-      </c>
-      <c r="H63" s="26" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C64" s="8" t="s">
         <v>208</v>
       </c>
-      <c r="C64" s="8" t="s">
+      <c r="D64" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" s="8" t="s">
         <v>209</v>
       </c>
-      <c r="D64" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E64" s="8" t="s">
+      <c r="F64" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="G64" s="23" t="s">
         <v>211</v>
       </c>
-      <c r="G64" s="23" t="s">
+      <c r="H64" s="26" t="s">
         <v>212</v>
-      </c>
-      <c r="H64" s="26" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="8" t="s">
+        <v>213</v>
+      </c>
+      <c r="C65" s="8" t="s">
         <v>214</v>
       </c>
-      <c r="C65" s="8" t="s">
+      <c r="D65" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E65" s="8" t="s">
         <v>215</v>
       </c>
-      <c r="D65" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E65" s="8" t="s">
+      <c r="F65" s="8" t="s">
         <v>216</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="G65" s="23" t="s">
         <v>217</v>
       </c>
-      <c r="G65" s="23" t="s">
+      <c r="H65" s="26" t="s">
         <v>218</v>
-      </c>
-      <c r="H65" s="26" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="C66" s="8" t="s">
         <v>220</v>
       </c>
-      <c r="C66" s="8" t="s">
+      <c r="D66" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E66" s="8" t="s">
         <v>221</v>
       </c>
-      <c r="D66" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E66" s="8" t="s">
+      <c r="F66" s="8" t="s">
         <v>222</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="G66" s="23" t="s">
         <v>223</v>
       </c>
-      <c r="G66" s="23" t="s">
+      <c r="H66" s="26" t="s">
         <v>224</v>
-      </c>
-      <c r="H66" s="26" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="19" t="s">
+        <v>225</v>
+      </c>
+      <c r="C67" s="19" t="s">
         <v>226</v>
       </c>
-      <c r="C67" s="19" t="s">
+      <c r="D67" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" s="19" t="s">
         <v>227</v>
       </c>
-      <c r="D67" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E67" s="19" t="s">
+      <c r="F67" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="G67" s="24" t="s">
         <v>229</v>
       </c>
-      <c r="G67" s="24" t="s">
+      <c r="H67" s="26" t="s">
         <v>230</v>
-      </c>
-      <c r="H67" s="26" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="C68" s="18" t="s">
         <v>232</v>
       </c>
-      <c r="C68" s="18" t="s">
+      <c r="D68" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E68" s="18" t="s">
         <v>233</v>
       </c>
-      <c r="D68" s="19" t="s">
-        <v>22</v>
-      </c>
-      <c r="E68" s="18" t="s">
+      <c r="F68" s="18" t="s">
+        <v>210</v>
+      </c>
+      <c r="G68" s="25" t="s">
         <v>234</v>
       </c>
-      <c r="F68" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="G68" s="25" t="s">
+      <c r="H68" s="26" t="s">
         <v>235</v>
-      </c>
-      <c r="H68" s="26" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="18" t="s">
+        <v>236</v>
+      </c>
+      <c r="C69" s="22" t="s">
         <v>237</v>
       </c>
-      <c r="C69" s="22" t="s">
+      <c r="D69" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E69" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="D69" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="E69" s="21" t="s">
+      <c r="F69" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="G69" s="25" t="s">
         <v>240</v>
       </c>
-      <c r="G69" s="25" t="s">
+      <c r="H69" s="26" t="s">
         <v>241</v>
-      </c>
-      <c r="H69" s="26" t="s">
-        <v>242</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -3764,457 +3760,456 @@
     </row>
     <row r="71" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C72" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C72" s="6" t="s">
+      <c r="D72" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="E72" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="F72" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="G72" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="H72" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H72" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" ht="42" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="73" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="8" t="s">
+        <v>243</v>
+      </c>
+      <c r="C73" s="8" t="s">
         <v>244</v>
       </c>
-      <c r="C73" s="8" t="s">
+      <c r="D73" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="D73" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E73" s="16" t="s">
+      <c r="F73" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="G73" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="G73" s="16" t="s">
+      <c r="H73" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="H73" s="16" t="s">
+    </row>
+    <row r="74" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="8" t="s">
         <v>249</v>
       </c>
-    </row>
-    <row r="74" spans="2:8" ht="37" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="8" t="s">
+      <c r="C74" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E74" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="C74" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E74" s="16" t="s">
+      <c r="F74" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="G74" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="H74" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="H74" s="16" t="s">
+    </row>
+    <row r="75" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="8" t="s">
         <v>254</v>
       </c>
-    </row>
-    <row r="75" spans="2:8" ht="34" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="8" t="s">
+      <c r="C75" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E75" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="C75" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E75" s="16" t="s">
+      <c r="F75" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="F75" s="16" t="s">
+      <c r="G75" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="G75" s="16" t="s">
+      <c r="H75" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="H75" s="16" t="s">
+    </row>
+    <row r="76" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="8" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="76" spans="2:8" ht="36.65" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="8" t="s">
+      <c r="C76" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E76" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="C76" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E76" s="16" t="s">
+      <c r="F76" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="F76" s="16" t="s">
+      <c r="G76" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="G76" s="16" t="s">
+      <c r="H76" s="16" t="s">
         <v>263</v>
       </c>
-      <c r="H76" s="16" t="s">
+    </row>
+    <row r="77" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="8" t="s">
         <v>264</v>
       </c>
-    </row>
-    <row r="77" spans="2:8" ht="35.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="8" t="s">
+      <c r="C77" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="E77" s="16" t="s">
         <v>265</v>
       </c>
-      <c r="C77" s="8" t="s">
-        <v>245</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="E77" s="16" t="s">
+      <c r="F77" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="F77" s="16" t="s">
+      <c r="G77" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="G77" s="16" t="s">
+      <c r="H77" s="16" t="s">
         <v>268</v>
-      </c>
-      <c r="H77" s="16" t="s">
-        <v>269</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C80" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C80" s="6" t="s">
+      <c r="D80" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="E80" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="F80" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="G80" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="H80" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H80" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="81" spans="2:10" ht="180" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="81" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="8" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" s="8" t="s">
         <v>271</v>
       </c>
-      <c r="C81" s="8" t="s">
+      <c r="D81" s="8" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="8" t="s">
+      <c r="E81" s="9" t="s">
         <v>273</v>
       </c>
-      <c r="E81" s="9" t="s">
+      <c r="F81" s="9" t="s">
         <v>274</v>
       </c>
-      <c r="F81" s="9" t="s">
+      <c r="G81" s="10" t="s">
         <v>275</v>
       </c>
-      <c r="G81" s="10" t="s">
+      <c r="H81" s="10" t="s">
         <v>276</v>
       </c>
-      <c r="H81" s="10" t="s">
+    </row>
+    <row r="82" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="8" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="82" spans="2:10" ht="164.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="8" t="s">
+      <c r="C82" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="C82" s="8" t="s">
+      <c r="D82" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E82" s="9" t="s">
         <v>279</v>
       </c>
-      <c r="D82" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E82" s="9" t="s">
+      <c r="F82" s="9" t="s">
+        <v>274</v>
+      </c>
+      <c r="G82" s="10" t="s">
         <v>280</v>
       </c>
-      <c r="F82" s="9" t="s">
-        <v>275</v>
-      </c>
-      <c r="G82" s="10" t="s">
+      <c r="H82" s="10" t="s">
         <v>281</v>
       </c>
-      <c r="H82" s="10" t="s">
+    </row>
+    <row r="83" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="8" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="83" spans="2:10" ht="106.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="8" t="s">
+      <c r="C83" s="8" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="8" t="s">
+      <c r="D83" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E83" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="D83" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E83" s="9" t="s">
+      <c r="F83" s="9" t="s">
         <v>285</v>
       </c>
-      <c r="F83" s="9" t="s">
+      <c r="G83" s="10" t="s">
         <v>286</v>
       </c>
-      <c r="G83" s="10" t="s">
+      <c r="H83" s="10" t="s">
         <v>287</v>
       </c>
-      <c r="H83" s="10" t="s">
+    </row>
+    <row r="84" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="8" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="84" spans="2:10" ht="104.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="8" t="s">
+      <c r="C84" s="8" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="8" t="s">
+      <c r="D84" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E84" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="D84" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E84" s="9" t="s">
+      <c r="F84" s="9" t="s">
         <v>291</v>
       </c>
-      <c r="F84" s="9" t="s">
+      <c r="G84" s="10" t="s">
         <v>292</v>
       </c>
-      <c r="G84" s="10" t="s">
+      <c r="H84" s="10" t="s">
         <v>293</v>
       </c>
-      <c r="H84" s="10" t="s">
+    </row>
+    <row r="85" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="8" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="85" spans="2:10" ht="123.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="8" t="s">
+      <c r="C85" s="8" t="s">
         <v>295</v>
       </c>
-      <c r="C85" s="8" t="s">
+      <c r="D85" s="8" t="s">
+        <v>272</v>
+      </c>
+      <c r="E85" s="9" t="s">
         <v>296</v>
       </c>
-      <c r="D85" s="8" t="s">
-        <v>273</v>
-      </c>
-      <c r="E85" s="9" t="s">
+      <c r="F85" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="F85" s="9" t="s">
+      <c r="G85" s="10" t="s">
         <v>298</v>
       </c>
-      <c r="G85" s="10" t="s">
+      <c r="H85" s="10" t="s">
         <v>299</v>
       </c>
-      <c r="H85" s="10" t="s">
+    </row>
+    <row r="87" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="2" t="s">
         <v>300</v>
       </c>
     </row>
-    <row r="87" spans="2:10" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="2" t="s">
+    <row r="88" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B88" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D88" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E88" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G88" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="H88" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B89" s="8" t="s">
         <v>301</v>
       </c>
-    </row>
-    <row r="88" spans="2:10" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H88" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="89" spans="2:10" ht="78.75" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B89" s="8" t="s">
+      <c r="C89" s="8" t="s">
         <v>302</v>
       </c>
-      <c r="C89" s="8" t="s">
+      <c r="D89" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E89" s="9" t="s">
         <v>303</v>
       </c>
-      <c r="D89" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E89" s="9" t="s">
+      <c r="F89" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G89" s="10" t="s">
         <v>304</v>
       </c>
-      <c r="F89" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G89" s="10" t="s">
+      <c r="H89" s="10" t="s">
         <v>305</v>
       </c>
-      <c r="H89" s="10" t="s">
+    </row>
+    <row r="90" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B90" s="8" t="s">
         <v>306</v>
       </c>
-    </row>
-    <row r="90" spans="2:10" ht="133.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B90" s="8" t="s">
+      <c r="C90" s="8" t="s">
         <v>307</v>
       </c>
-      <c r="C90" s="8" t="s">
+      <c r="D90" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E90" s="9" t="s">
         <v>308</v>
       </c>
-      <c r="D90" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="E90" s="9" t="s">
+      <c r="F90" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G90" s="10" t="s">
         <v>309</v>
       </c>
-      <c r="F90" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G90" s="10" t="s">
+      <c r="H90" s="10" t="s">
         <v>310</v>
       </c>
-      <c r="H90" s="10" t="s">
+    </row>
+    <row r="91" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="8" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="91" spans="2:10" ht="118.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B91" s="8" t="s">
+      <c r="C91" s="8" t="s">
+        <v>139</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>126</v>
+      </c>
+      <c r="E91" s="9" t="s">
         <v>312</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E91" s="9" t="s">
+      <c r="F91" s="9" t="s">
         <v>313</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="G91" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="H91" s="10" t="s">
         <v>315</v>
       </c>
-      <c r="H91" s="10" t="s">
+    </row>
+    <row r="92" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="11" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="92" spans="2:10" ht="71.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B92" s="11" t="s">
+      <c r="C92" s="11" t="s">
         <v>317</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="D92" s="11" t="s">
         <v>318</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="E92" s="28" t="s">
         <v>319</v>
       </c>
-      <c r="E92" s="29" t="s">
+      <c r="F92" s="10" t="s">
         <v>320</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="G92" s="10" t="s">
         <v>321</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="H92" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="H92" s="10" t="s">
+    </row>
+    <row r="93" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="8" t="s">
         <v>323</v>
       </c>
-    </row>
-    <row r="93" spans="2:10" ht="74.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B93" s="8" t="s">
+      <c r="C93" s="8" t="s">
         <v>324</v>
       </c>
-      <c r="C93" s="8" t="s">
+      <c r="D93" s="8" t="s">
+        <v>318</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="D93" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E93" s="9" t="s">
+      <c r="F93" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G93" s="9" t="s">
         <v>326</v>
       </c>
-      <c r="F93" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G93" s="9" t="s">
+      <c r="H93" s="10" t="s">
         <v>327</v>
       </c>
-      <c r="H93" s="10" t="s">
+    </row>
+    <row r="94" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="8" t="s">
         <v>328</v>
       </c>
-    </row>
-    <row r="94" spans="2:10" ht="92.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B94" s="8" t="s">
+      <c r="C94" s="8" t="s">
         <v>329</v>
       </c>
-      <c r="C94" s="8" t="s">
+      <c r="D94" s="8" t="s">
         <v>330</v>
       </c>
-      <c r="D94" s="8" t="s">
+      <c r="E94" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="E94" s="9" t="s">
+      <c r="F94" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="G94" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="F94" s="9" t="s">
-        <v>45</v>
-      </c>
-      <c r="G94" s="10" t="s">
+      <c r="H94" s="9" t="s">
         <v>333</v>
       </c>
-      <c r="H94" s="9" t="s">
-        <v>334</v>
-      </c>
       <c r="I94" s="27"/>
-      <c r="J94" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -4223,6 +4218,23 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100FB0BDFD3C69BE04CA0B6EBFBB59E4559" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="752b2ff175b05b03e0c035222de06982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d91bb22-1267-46fa-8e61-645dc3a0f267" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1718121399b3c72a7290a669e49a9f43" ns3:_="">
     <xsd:import namespace="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
@@ -4372,24 +4384,31 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350613E8-C7A8-47A8-A984-080AEEB682C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD63C88E-B181-4E7E-99E9-22F3DCB37E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16BA752-8E69-44C1-8FFF-9EFCCB30E74D}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -4405,28 +4424,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD63C88E-B181-4E7E-99E9-22F3DCB37E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350613E8-C7A8-47A8-A984-080AEEB682C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/総合テスト/総合テスト仕様書.xlsx
+++ b/総合テスト/総合テスト仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riku.yamashita\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/riku_yamashita_avantcorp_com/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{82F0BC75-C921-49D8-ABC8-D8ACD3FCDA5D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B83B98A-F94F-4AC2-8E71-4D293991D583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
   </bookViews>
@@ -152,6 +152,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>商品B =(productId: 2, name: アロマディフューザー（ウッド）, price: 4200, stock: 15)</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>・テスト開始時、カートは空の状態であること（必要に応じてテスト前にクリアする）。</t>
     <phoneticPr fontId="2"/>
   </si>
@@ -677,7 +681,8 @@
     <t>カートモーダルで数量を在庫以上に変更しようとした場合 (APIレベル)</t>
   </si>
   <si>
-    <t>商品B(在庫5)がカートに1個入っている</t>
+    <t>商品Bがカートに1個入っている</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. カートモーダルを表示。
@@ -718,6 +723,7 @@
       <t>) 呼び出しでエラーが発生または無視され、カート内の数量は更新されないことが期待される (サーバー側での在庫チェック実装に依存)。
 2. 画面上の表示が元に戻る、またはエラーメッセージが表示される (現在の実装では特にエラー処理なし)。</t>
     </r>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ST-C-011</t>
@@ -736,6 +742,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>1. JSレベルで入力が制限されるか(HTMLの</t>
     </r>
     <r>
@@ -783,7 +797,6 @@
       <t>)となり、数量が更新されないこと。
 2. 画面にエラーメッセージが表示されるか、元の値に戻ること (現在の実装ではサーバーエラーは捕捉しない)。</t>
     </r>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ST-C-012</t>
@@ -1642,9 +1655,9 @@
   </si>
   <si>
     <t>1. index.html を表示。
-2. 商品A(シングルデスクオーガナイザー)の詳細を表示し、数量2でカートに追加。
-3. 商品B(アロマディフューザー(ウッド))の詳細を表示し、数量1でカートに追加。
-4. カートモーダルを表示し、内容（商品A x2, 商品B x1, 合計11200円）を確認。
+2. 商品Aの詳細を表示し、数量2でカートに追加。
+3. 商品Bの詳細を表示し、数量1でカートに追加。
+4. カートモーダルを表示し、内容（商品A x2, 商品B x1, 合計4000円）を確認。
 5. 「注文手続きへ」をクリック。
 6. 有効な顧客情報を入力。
 7. 「注文を確定する」をクリック。</t>
@@ -1654,7 +1667,6 @@
 2. カートモーダルの内容が正しいこと。
 3. 注文が正常に完了し、完了モーダルが表示され注文番号が確認できること。
 4. テスト後にカートが空になり、商品Aの在庫が2、商品Bの在庫が1減っていること。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ST-SC-002</t>
@@ -1667,18 +1679,18 @@
   </si>
   <si>
     <t>1. index.html を表示。
-2. 商品C(ソープディスペンサー)を3個カートに追加。
-3. 商品D(珪藻土バスマット)を2個カートに追加。
+2. 商品Aを3個カートに追加。
+3. 商品Bを2個カートに追加。
 4. カートモーダルを表示。
-5. 商品Cの数量を1に変更。
-6. 商品Dを削除。
-7. カートの内容（商品A x1, 合計1500円）を確認。
+5. 商品Aの数量を1に変更。
+6. 商品Bを削除。
+7. カートの内容（商品A x1, 合計1000円）を確認。
 8. 「注文手続きへ」をクリックし、顧客情報を入力して注文を確定する。</t>
   </si>
   <si>
     <t>1. カートの数量変更、削除、合計金額の再計算が正しく行われること。
-2. 最終的なカート内容（商品C x1）で注文が正常に完了すること。
-3. テスト後に商品Cの在庫が1減り、商品Dの在庫は変化しないこと。</t>
+2. 最終的なカート内容（商品A x1）で注文が正常に完了すること。
+3. テスト後に商品Aの在庫が1減り、商品Bの在庫は変化しないこと。</t>
   </si>
   <si>
     <t>ST-SC-003</t>
@@ -1696,7 +1708,6 @@
     <t>1. ST-SC-001 の手順 1〜5 を実行し、顧客情報入力モーダルを表示させる。
 2. 顧客情報を入力せずに「キャンセル」ボタンをクリックする (またはモーダルを閉じる)。
 3. 再度カートアイコンをクリックする。</t>
-    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. 顧客情報入力モーダルが閉じられること。
@@ -1717,13 +1728,13 @@
     <t>商品Bの在庫が1個</t>
   </si>
   <si>
-    <t>1. 商品E(キャンバストートバッグ)を1個カートに追加する。
-2. (別の手段で) 商品Eの在庫を0にする。
+    <t>1. 商品Bを1個カートに追加する。
+2. (別の手段で) 商品Bの在庫を0にする。
 3. カートモーダルから注文手続きに進み、顧客情報を入力。
 4. 「注文を確定する」ボタンをクリックする。</t>
   </si>
   <si>
-    <t>1. 注文確定時にサーバー側で在庫不足が検知され、注文が失敗すること 。
+    <t>1. 注文確定時にサーバー側で在庫不足が検知され、注文が失敗すること (OrderService の在庫チェック)。
 2. 画面にエラーメッセージが表示されること。
 3. カートの中身はそのまま残っていること。
 4. DBの在庫数は0のままであること。</t>
@@ -1741,14 +1752,14 @@
     <t>ST-SC-001 完了後</t>
   </si>
   <si>
-    <t>1.  商品F(付箋)×２ の注文が完了し、カートが空になっていることを確認。
-2. 再度 index.html から商品fを1個カートに追加。
+    <t>1. ST-SC-001 の注文が完了し、カートが空になっていることを確認。
+2. 再度 index.html から商品Bを1個カートに追加。
 3. カートモーダルから注文手続きに進み、別の顧客情報（または同じ情報）を入力して注文を確定する。</t>
   </si>
   <si>
     <t>1. 2回目の注文が正常に完了し、完了モーダルが表示されること。
 2. 1回目の注文とは異なる注文番号が払い出されること。
-3. テスト後にカートが空になり、商品Fの在庫がさらに1減っていること。
+3. テスト後にカートが空になり、商品Bの在庫がさらに1減っていること。
 4. DBには1回目と2回目の両方の注文データが記録されていること。</t>
   </si>
   <si>
@@ -1827,6 +1838,8 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>大量の商品データが存在する場合でも、商品一覧API (</t>
@@ -1836,6 +1849,8 @@
         <sz val="11"/>
         <color rgb="FF000000"/>
         <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>/api/products</t>
@@ -1845,6 +1860,8 @@
         <sz val="11"/>
         <color rgb="FF333333"/>
         <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
       <t>) の応答時間が許容範囲内であること</t>
@@ -1921,10 +1938,6 @@
   </si>
   <si>
     <t>1. 処理の開始・終了、重要なパラメータ（注文IDなど）、エラー発生時の詳細情報などがログに出力されていること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品B =(productId: 2, name: アロマディフューザー（ウッド）, price: 4200, stock: 15)</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1932,7 +1945,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1997,18 +2010,20 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF333333"/>
+      <color rgb="FF000000"/>
       <name val="游ゴシック"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF000000"/>
+      <color rgb="FF333333"/>
       <name val="游ゴシック"/>
-      <scheme val="minor"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2025,6 +2040,18 @@
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDAF2D0"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -2155,7 +2182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2240,8 +2267,17 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2579,956 +2615,956 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5E3F2-C487-43AA-A38B-87CA8BE4C9AD}">
   <dimension ref="B1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G16" sqref="G16"/>
+    <sheetView tabSelected="1" topLeftCell="C78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="8.58203125" style="1"/>
-    <col min="2" max="2" width="11.08203125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.625" style="1"/>
+    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="35.25" style="5" customWidth="1"/>
     <col min="7" max="7" width="54.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="59.33203125" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.58203125" style="1"/>
+    <col min="8" max="8" width="59.375" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="2:3" ht="18">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="2:3" ht="18">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="2:3" ht="18">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="2:3" ht="18">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="2:3" ht="18">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="2:3" ht="18">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="2:3" ht="18">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="2:3" ht="18">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="2:3" ht="18">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="2:3" ht="18">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="2:3" ht="18">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="2:3" ht="18">
       <c r="C12" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" ht="18">
       <c r="B13" s="3" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" ht="18">
       <c r="B15" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:8" ht="18">
       <c r="B17" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="2:8" ht="18">
       <c r="B18" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B19" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B20" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G20" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B21" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="F21" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="H21" s="10" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B22" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="9" t="s">
+        <v>40</v>
+      </c>
+      <c r="F22" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="G22" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="H22" s="10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B23" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>34</v>
+      </c>
+      <c r="D23" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="24" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B24" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="C24" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D24" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E24" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F24" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" ht="18">
+      <c r="B26" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" ht="18">
+      <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D18" s="6" t="s">
+      <c r="C27" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="D27" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F18" s="7" t="s">
+      <c r="E27" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G18" s="7" t="s">
+      <c r="F27" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H18" s="7" t="s">
+      <c r="G27" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B19" s="8" t="s">
+      <c r="H27" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" s="9" t="s">
+    </row>
+    <row r="28" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B28" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="C28" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D28" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="G19" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="10" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="20" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B20" s="8" t="s">
-        <v>26</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="9" t="s">
+      <c r="E28" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="F28" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B29" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D29" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E29" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="F29" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H29" s="10" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B30" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D30" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>68</v>
+      </c>
+      <c r="H30" s="10" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B31" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="D31" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H31" s="15" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B32" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C32" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D32" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E32" s="9" t="s">
+        <v>77</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B33" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C33" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E33" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B34" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C34" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D34" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>88</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B35" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="C35" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E35" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="F35" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="H35" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B36" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="F36" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B37" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="C37" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E37" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H37" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B38" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E38" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="H38" s="15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B39" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="C39" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D39" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E39" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H39" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B40" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C40" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D40" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E40" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>118</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B41" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D41" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="F20" s="9" t="s">
-        <v>29</v>
-      </c>
-      <c r="G20" s="9" t="s">
-        <v>30</v>
-      </c>
-      <c r="H20" s="10" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B21" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E21" s="9" t="s">
-        <v>34</v>
-      </c>
-      <c r="F21" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G21" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="10" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B22" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D22" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F22" s="9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G22" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="H22" s="10" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B23" s="11" t="s">
-        <v>42</v>
-      </c>
-      <c r="C23" s="11" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" s="10" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="10" t="s">
-        <v>44</v>
-      </c>
-      <c r="G23" s="10" t="s">
-        <v>45</v>
-      </c>
-      <c r="H23" s="10" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B24" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D24" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="F24" s="9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G24" s="10" t="s">
-        <v>50</v>
-      </c>
-      <c r="H24" s="10" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B27" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C27" s="6" t="s">
+      <c r="E41" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B42" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="H42" s="10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" ht="18">
+      <c r="B44" s="2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" ht="18">
+      <c r="B45" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D27" s="6" t="s">
+      <c r="C45" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="7" t="s">
+      <c r="D45" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F27" s="7" t="s">
+      <c r="E45" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G27" s="7" t="s">
+      <c r="F45" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H27" s="7" t="s">
+      <c r="G45" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="28" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B28" s="8" t="s">
-        <v>53</v>
-      </c>
-      <c r="C28" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D28" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28" s="9" t="s">
-        <v>55</v>
-      </c>
-      <c r="F28" s="9" t="s">
-        <v>56</v>
-      </c>
-      <c r="G28" s="10" t="s">
-        <v>57</v>
-      </c>
-      <c r="H28" s="10" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="29" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B29" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D29" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" s="9" t="s">
-        <v>60</v>
-      </c>
-      <c r="F29" s="9" t="s">
-        <v>61</v>
-      </c>
-      <c r="G29" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="H29" s="10" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="30" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B30" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="C30" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="D30" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="9" t="s">
-        <v>66</v>
-      </c>
-      <c r="G30" s="10" t="s">
-        <v>67</v>
-      </c>
-      <c r="H30" s="10" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="31" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B31" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="C31" s="11" t="s">
-        <v>54</v>
-      </c>
-      <c r="D31" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>70</v>
-      </c>
-      <c r="F31" s="10" t="s">
-        <v>71</v>
-      </c>
-      <c r="G31" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="H31" s="15" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B32" s="8" t="s">
-        <v>74</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="F32" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D33" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="F33" s="9" t="s">
-        <v>82</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B34" s="8" t="s">
-        <v>85</v>
-      </c>
-      <c r="C34" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D34" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>87</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B35" s="8" t="s">
-        <v>89</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D35" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="F35" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G35" s="10" t="s">
-        <v>93</v>
-      </c>
-      <c r="H35" s="10" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B36" s="8" t="s">
-        <v>95</v>
-      </c>
-      <c r="C36" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D36" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="9" t="s">
-        <v>96</v>
-      </c>
-      <c r="F36" s="9" t="s">
-        <v>97</v>
-      </c>
-      <c r="G36" s="10" t="s">
-        <v>98</v>
-      </c>
-      <c r="H36" s="10" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B37" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="C37" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D37" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E37" s="9" t="s">
-        <v>101</v>
-      </c>
-      <c r="F37" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="G37" s="10" t="s">
-        <v>103</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B38" s="8" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="D38" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" s="9" t="s">
-        <v>106</v>
-      </c>
-      <c r="F38" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="G38" s="10" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" s="10" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B39" s="8" t="s">
-        <v>110</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D39" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E39" s="9" t="s">
-        <v>112</v>
-      </c>
-      <c r="F39" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H39" s="10" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B40" s="8" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="D40" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E40" s="9" t="s">
-        <v>116</v>
-      </c>
-      <c r="F40" s="9" t="s">
-        <v>117</v>
-      </c>
-      <c r="G40" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B41" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="C41" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D41" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="E41" s="9" t="s">
-        <v>121</v>
-      </c>
-      <c r="F41" s="9" t="s">
-        <v>92</v>
-      </c>
-      <c r="G41" s="9" t="s">
-        <v>122</v>
-      </c>
-      <c r="H41" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B42" s="11" t="s">
-        <v>124</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B44" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B45" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C45" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D45" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E45" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F45" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G45" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H45" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" ht="50.25" customHeight="1">
       <c r="B46" s="8" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="50.25" customHeight="1">
       <c r="B47" s="8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E47" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>142</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="H47" s="10" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B48" s="8" t="s">
+        <v>145</v>
+      </c>
+      <c r="C48" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="F47" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="G47" s="10" t="s">
+      <c r="D48" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="F48" s="9" t="s">
         <v>142</v>
       </c>
-      <c r="H47" s="10" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B48" s="8" t="s">
-        <v>144</v>
-      </c>
-      <c r="C48" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="D48" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E48" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="F48" s="9" t="s">
-        <v>141</v>
-      </c>
       <c r="G48" s="10" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="50.25" customHeight="1">
       <c r="B49" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="50.25" customHeight="1">
       <c r="B50" s="8" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="50.25" customHeight="1">
       <c r="B51" s="8" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="50.25" customHeight="1">
       <c r="B52" s="8" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="50.25" customHeight="1">
       <c r="B53" s="8" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E53" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="H53" s="10" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B54" s="8" t="s">
+        <v>171</v>
+      </c>
+      <c r="C54" s="8" t="s">
         <v>166</v>
       </c>
-      <c r="F53" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="G53" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="H53" s="10" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B54" s="8" t="s">
-        <v>170</v>
-      </c>
-      <c r="C54" s="8" t="s">
-        <v>165</v>
-      </c>
       <c r="D54" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="50.25" customHeight="1">
       <c r="B55" s="8" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="50.25" customHeight="1">
       <c r="B56" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="D56" s="11" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="50.25" customHeight="1">
       <c r="B57" s="8" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="50.25" customHeight="1">
       <c r="B58" s="8" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="18">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -3537,219 +3573,219 @@
       <c r="G59" s="13"/>
       <c r="H59" s="14"/>
     </row>
-    <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="60" spans="2:8" ht="18">
       <c r="B60" s="2" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="18">
       <c r="B61" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D61" s="6" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E61" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F61" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G61" s="7" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="H61" s="20" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" ht="50.25" customHeight="1">
       <c r="B62" s="8" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="F62" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="50.25" customHeight="1">
       <c r="B63" s="8" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="50.25" customHeight="1">
       <c r="B64" s="8" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G64" s="23" t="s">
+        <v>212</v>
+      </c>
+      <c r="H64" s="26" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B65" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E65" s="8" t="s">
+        <v>216</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>217</v>
+      </c>
+      <c r="G65" s="23" t="s">
+        <v>218</v>
+      </c>
+      <c r="H65" s="26" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B66" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="C66" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="D66" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E66" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>223</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>224</v>
+      </c>
+      <c r="H66" s="26" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B67" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="C67" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="D67" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E67" s="19" t="s">
+        <v>228</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>229</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>230</v>
+      </c>
+      <c r="H67" s="26" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B68" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="C68" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="D68" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F68" s="18" t="s">
         <v>211</v>
       </c>
-      <c r="H64" s="26" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B65" s="8" t="s">
-        <v>213</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="D65" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E65" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="F65" s="8" t="s">
-        <v>216</v>
-      </c>
-      <c r="G65" s="23" t="s">
-        <v>217</v>
-      </c>
-      <c r="H65" s="26" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B66" s="8" t="s">
-        <v>219</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="D66" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E66" s="8" t="s">
-        <v>221</v>
-      </c>
-      <c r="F66" s="8" t="s">
-        <v>222</v>
-      </c>
-      <c r="G66" s="23" t="s">
-        <v>223</v>
-      </c>
-      <c r="H66" s="26" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B67" s="19" t="s">
-        <v>225</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E67" s="19" t="s">
-        <v>227</v>
-      </c>
-      <c r="F67" s="19" t="s">
-        <v>228</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>229</v>
-      </c>
-      <c r="H67" s="26" t="s">
-        <v>230</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B68" s="19" t="s">
-        <v>231</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>232</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E68" s="18" t="s">
-        <v>233</v>
-      </c>
-      <c r="F68" s="18" t="s">
-        <v>210</v>
-      </c>
       <c r="G68" s="25" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="50.25" customHeight="1">
       <c r="B69" s="18" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="D69" s="18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="18">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -3758,456 +3794,456 @@
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="71" spans="2:8" ht="18">
       <c r="B71" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="18">
       <c r="B72" s="6" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C72" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D72" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="E72" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F72" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="G72" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H72" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B73" s="8" t="s">
+        <v>244</v>
+      </c>
+      <c r="C73" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D73" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E73" s="16" t="s">
+        <v>246</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>247</v>
+      </c>
+      <c r="G73" s="16" t="s">
+        <v>248</v>
+      </c>
+      <c r="H73" s="16" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B74" s="8" t="s">
+        <v>250</v>
+      </c>
+      <c r="C74" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D74" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>251</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>252</v>
+      </c>
+      <c r="G74" s="16" t="s">
+        <v>253</v>
+      </c>
+      <c r="H74" s="16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B75" s="8" t="s">
+        <v>255</v>
+      </c>
+      <c r="C75" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D75" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B76" s="8" t="s">
+        <v>260</v>
+      </c>
+      <c r="C76" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D76" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>261</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="50.25" customHeight="1">
+      <c r="B77" s="8" t="s">
+        <v>265</v>
+      </c>
+      <c r="C77" s="8" t="s">
+        <v>245</v>
+      </c>
+      <c r="D77" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>266</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>267</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>268</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="18">
+      <c r="B79" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8">
+      <c r="B80" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="D72" s="6" t="s">
+      <c r="C80" s="28" t="s">
         <v>14</v>
       </c>
-      <c r="E72" s="7" t="s">
+      <c r="D80" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="F72" s="7" t="s">
+      <c r="E80" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="G72" s="7" t="s">
+      <c r="F80" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H72" s="7" t="s">
+      <c r="G80" s="29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="73" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B73" s="8" t="s">
-        <v>243</v>
-      </c>
-      <c r="C73" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D73" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E73" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="F73" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="G73" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="H73" s="16" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B74" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C74" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D74" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E74" s="16" t="s">
-        <v>250</v>
-      </c>
-      <c r="F74" s="16" t="s">
-        <v>251</v>
-      </c>
-      <c r="G74" s="16" t="s">
-        <v>252</v>
-      </c>
-      <c r="H74" s="16" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B75" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="C75" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D75" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>255</v>
-      </c>
-      <c r="F75" s="16" t="s">
-        <v>256</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="H75" s="16" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B76" s="8" t="s">
-        <v>259</v>
-      </c>
-      <c r="C76" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D76" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E76" s="16" t="s">
-        <v>260</v>
-      </c>
-      <c r="F76" s="16" t="s">
-        <v>261</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>263</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B77" s="8" t="s">
-        <v>264</v>
-      </c>
-      <c r="C77" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="D77" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="E77" s="16" t="s">
-        <v>265</v>
-      </c>
-      <c r="F77" s="16" t="s">
-        <v>266</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="H77" s="16" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B79" s="2" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B80" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C80" s="6" t="s">
+      <c r="H80" s="29" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="50.25" customHeight="1">
+      <c r="B81" s="30" t="s">
+        <v>271</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>272</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>274</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="50.25" customHeight="1">
+      <c r="B82" s="30" t="s">
+        <v>278</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>279</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E82" s="31" t="s">
+        <v>280</v>
+      </c>
+      <c r="F82" s="31" t="s">
+        <v>275</v>
+      </c>
+      <c r="G82" s="31" t="s">
+        <v>281</v>
+      </c>
+      <c r="H82" s="31" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="83" spans="2:9" ht="50.25" customHeight="1">
+      <c r="B83" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C83" s="30" t="s">
+        <v>284</v>
+      </c>
+      <c r="D83" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E83" s="31" t="s">
+        <v>285</v>
+      </c>
+      <c r="F83" s="31" t="s">
+        <v>286</v>
+      </c>
+      <c r="G83" s="31" t="s">
+        <v>287</v>
+      </c>
+      <c r="H83" s="31" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="84" spans="2:9" ht="50.25" customHeight="1">
+      <c r="B84" s="30" t="s">
+        <v>289</v>
+      </c>
+      <c r="C84" s="30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D84" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E84" s="31" t="s">
+        <v>291</v>
+      </c>
+      <c r="F84" s="31" t="s">
+        <v>292</v>
+      </c>
+      <c r="G84" s="31" t="s">
+        <v>293</v>
+      </c>
+      <c r="H84" s="31" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="2:9" ht="50.25" customHeight="1">
+      <c r="B85" s="30" t="s">
+        <v>295</v>
+      </c>
+      <c r="C85" s="30" t="s">
+        <v>296</v>
+      </c>
+      <c r="D85" s="30" t="s">
+        <v>273</v>
+      </c>
+      <c r="E85" s="31" t="s">
+        <v>297</v>
+      </c>
+      <c r="F85" s="31" t="s">
+        <v>298</v>
+      </c>
+      <c r="G85" s="31" t="s">
+        <v>299</v>
+      </c>
+      <c r="H85" s="31" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="87" spans="2:9" ht="18">
+      <c r="B87" s="2" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="88" spans="2:9" ht="18">
+      <c r="B88" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D80" s="6" t="s">
+      <c r="C88" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E80" s="7" t="s">
+      <c r="D88" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F80" s="7" t="s">
+      <c r="E88" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="F88" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="H80" s="7" t="s">
+      <c r="G88" s="7" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="81" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B81" s="8" t="s">
-        <v>270</v>
-      </c>
-      <c r="C81" s="8" t="s">
-        <v>271</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E81" s="9" t="s">
-        <v>273</v>
-      </c>
-      <c r="F81" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G81" s="10" t="s">
-        <v>275</v>
-      </c>
-      <c r="H81" s="10" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="82" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B82" s="8" t="s">
-        <v>277</v>
-      </c>
-      <c r="C82" s="8" t="s">
-        <v>278</v>
-      </c>
-      <c r="D82" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E82" s="9" t="s">
-        <v>279</v>
-      </c>
-      <c r="F82" s="9" t="s">
-        <v>274</v>
-      </c>
-      <c r="G82" s="10" t="s">
-        <v>280</v>
-      </c>
-      <c r="H82" s="10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="83" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B83" s="8" t="s">
-        <v>282</v>
-      </c>
-      <c r="C83" s="8" t="s">
-        <v>283</v>
-      </c>
-      <c r="D83" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E83" s="9" t="s">
-        <v>284</v>
-      </c>
-      <c r="F83" s="9" t="s">
-        <v>285</v>
-      </c>
-      <c r="G83" s="10" t="s">
-        <v>286</v>
-      </c>
-      <c r="H83" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="84" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B84" s="8" t="s">
-        <v>288</v>
-      </c>
-      <c r="C84" s="8" t="s">
-        <v>289</v>
-      </c>
-      <c r="D84" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E84" s="9" t="s">
-        <v>290</v>
-      </c>
-      <c r="F84" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="G84" s="10" t="s">
-        <v>292</v>
-      </c>
-      <c r="H84" s="10" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B85" s="8" t="s">
-        <v>294</v>
-      </c>
-      <c r="C85" s="8" t="s">
-        <v>295</v>
-      </c>
-      <c r="D85" s="8" t="s">
-        <v>272</v>
-      </c>
-      <c r="E85" s="9" t="s">
-        <v>296</v>
-      </c>
-      <c r="F85" s="9" t="s">
-        <v>297</v>
-      </c>
-      <c r="G85" s="10" t="s">
-        <v>298</v>
-      </c>
-      <c r="H85" s="10" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B87" s="2" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
-      <c r="B88" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D88" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E88" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F88" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G88" s="7" t="s">
-        <v>17</v>
-      </c>
       <c r="H88" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="89" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="2:9" ht="50.25" customHeight="1">
       <c r="B89" s="8" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="F89" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="50.25" customHeight="1">
       <c r="B90" s="8" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="F90" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="91" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="50.25" customHeight="1">
       <c r="B91" s="8" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="92" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="50.25" customHeight="1">
       <c r="B92" s="11" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="E92" s="28" t="s">
         <v>319</v>
       </c>
+      <c r="E92" s="10" t="s">
+        <v>320</v>
+      </c>
       <c r="F92" s="10" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="93" spans="2:9" ht="50.25" customHeight="1">
       <c r="B93" s="8" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="E93" s="9" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F93" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="50.25" customHeight="1">
       <c r="B94" s="8" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F94" s="9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I94" s="27"/>
     </row>
@@ -4227,14 +4263,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100FB0BDFD3C69BE04CA0B6EBFBB59E4559" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="752b2ff175b05b03e0c035222de06982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d91bb22-1267-46fa-8e61-645dc3a0f267" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1718121399b3c72a7290a669e49a9f43" ns3:_="">
     <xsd:import namespace="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
@@ -4384,44 +4412,22 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350613E8-C7A8-47A8-A984-080AEEB682C2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350613E8-C7A8-47A8-A984-080AEEB682C2}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD63C88E-B181-4E7E-99E9-22F3DCB37E93}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16BA752-8E69-44C1-8FFF-9EFCCB30E74D}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16BA752-8E69-44C1-8FFF-9EFCCB30E74D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD63C88E-B181-4E7E-99E9-22F3DCB37E93}"/>
 </file>
--- a/総合テスト/総合テスト仕様書.xlsx
+++ b/総合テスト/総合テスト仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/riku_yamashita_avantcorp_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riku.yamashita\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B83B98A-F94F-4AC2-8E71-4D293991D583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0EE722-A5BB-44A7-AEB0-69F06AC2FAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
   </bookViews>
@@ -485,69 +485,9 @@
     <t>在庫数を超える数量をカートに追加しようとした場合 (JSレベル)</t>
   </si>
   <si>
-    <t>商品B(在庫5)の詳細モーダル表示</t>
-  </si>
-  <si>
     <t>1. 数量入力欄に「16」を入力しようとする (または入力してボタンを押す)。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. HTMLの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>要素の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>属性により、6以上の入力ができない。</t>
-    </r>
-  </si>
-  <si>
     <t>ST-C-005</t>
   </si>
   <si>
@@ -563,44 +503,6 @@
     <t>1. 画面右上のカートアイコンをクリックする。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. カートモーダル (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cartModal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) が表示されること。
-2. モーダル内に商品Aの情報（名前、単価、数量=3、小計=2500）が表示されること。
-3. 合計金額が「7500」円と表示されること。
-4. 「注文手続きへ」ボタンが有効であること。</t>
-    </r>
-  </si>
-  <si>
     <t>ST-C-006</t>
   </si>
   <si>
@@ -611,11 +513,6 @@
   </si>
   <si>
     <t>1. カートアイコンをクリックする。</t>
-  </si>
-  <si>
-    <t>1. カートモーダルが表示されること。
-2. 商品A (数量3, 小計7500) と商品B (数量1, 小計3200) が表示されること。
-3. 合計金額が「10700」円と表示されること。</t>
   </si>
   <si>
     <t>ST-C-007</t>
@@ -651,11 +548,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 商品Aの数量が「4」、小計が「10000」円に更新されること。
-2. 合計金額が「13200」円 (10000+3200) に更新されること。
-3. カートアイコンのバッジが「5」 (4+1) に更新されること。</t>
-  </si>
-  <si>
     <t>ST-C-009</t>
   </si>
   <si>
@@ -670,11 +562,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 商品Aの数量が「1」、小計が「2500」円に更新されること。
-2. 合計金額が「5700」円 (2500+3200) に更新されること。
-3. カートアイコンのバッジが「2」 (1+1) に更新されること。</t>
-  </si>
-  <si>
     <t>ST-C-010</t>
   </si>
   <si>
@@ -732,15 +619,6 @@
     <t>カートモーダルで数量を0や負数に変更しようとした場合 (JS/API)</t>
   </si>
   <si>
-    <t>商品Aがカートに1個入っている</t>
-  </si>
-  <si>
-    <t>1. カートモーダルを表示。
-2. 商品Aの数量を「0」に変更する。
-3. (可能なら)商品Aの数量を「-1」に変更する。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -811,12 +689,6 @@
     <t>1. カートモーダルを表示する。
 2. 商品Aの行にある「削除」ボタンをクリックする。</t>
     <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. カートモーダルから商品Aの行が削除されること。
-2. 商品Bのみが表示されていること。
-3. 合計金額が「3200」円に更新されること。
-4. カートアイコンのバッジが「1」に更新されること。</t>
   </si>
   <si>
     <t>ST-C-013</t>
@@ -1940,12 +1812,140 @@
     <t>1. 処理の開始・終了、重要なパラメータ（注文IDなど）、エラー発生時の詳細情報などがログに出力されていること。</t>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>商品B(在庫１5)の詳細モーダル表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. HTMLの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要素の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性により、１6以上の入力ができない。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <t>1. カートモーダル (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cartModal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) が表示されること。
+2. モーダル内に商品Aの情報（名前、単価、数量=3、小計=10,500）が表示されること。
+3. 合計金額が「10,500」円と表示されること。
+4. 「注文手続きへ」ボタンが有効であること。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. カートモーダルが表示されること。
+2. 商品A (数量3, 小計10,500) と商品B (数量1, 小計4,200) が表示されること。
+3. 合計金額が「14,700」円と表示されること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 商品Aの数量が「4」、小計が「14,000」円に更新されること。
+2. 合計金額が「18,200」円 (14,000+4,200) に更新されること。
+3. カートアイコンのバッジが「5」 (4+1) に更新されること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 商品Aの数量が「1」、小計が「3,500」円に更新されること。
+2. 合計金額が「7,700」円 (3,500+4,200) に更新されること。
+3. カートアイコンのバッジが「2」 (1+1) に更新されること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. カートモーダルから商品Aの行が削除されること。
+2. 商品Bのみが表示されていること。
+3. 合計金額が「4,200」円に更新されること。
+4. カートアイコンのバッジが「1」に更新されること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>商品Bがカートに1個入っている</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1. カートモーダルを表示。
+2. 商品Bの数量を「0」に変更する。
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2182,7 +2182,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2277,6 +2277,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2615,95 +2618,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5E3F2-C487-43AA-A38B-87CA8BE4C9AD}">
   <dimension ref="B1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" style="1"/>
+    <col min="2" max="2" width="11.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="35.25" style="5" customWidth="1"/>
     <col min="7" max="7" width="54.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="59.375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="1"/>
+    <col min="8" max="8" width="59.33203125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18">
+    <row r="1" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="18">
+    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="2:3" ht="18">
+    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18">
+    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="18">
+    <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="18">
+    <row r="6" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="2:3" ht="18">
+    <row r="7" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="18">
+    <row r="8" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="18">
+    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="18">
+    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="18">
+    <row r="11" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="18">
+    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="18">
+    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="18">
+    <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="18">
+    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="18">
+    <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2726,7 +2729,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="50.25" customHeight="1">
+    <row r="19" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
@@ -2749,7 +2752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="50.25" customHeight="1">
+    <row r="20" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -2772,7 +2775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="50.25" customHeight="1">
+    <row r="21" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
@@ -2795,7 +2798,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="50.25" customHeight="1">
+    <row r="22" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="8" t="s">
         <v>39</v>
       </c>
@@ -2818,7 +2821,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="50.25" customHeight="1">
+    <row r="23" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11" t="s">
         <v>43</v>
       </c>
@@ -2841,7 +2844,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="50.25" customHeight="1">
+    <row r="24" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="8" t="s">
         <v>48</v>
       </c>
@@ -2864,12 +2867,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="18">
+    <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="18">
+    <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
@@ -2892,7 +2895,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="50.25" customHeight="1">
+    <row r="28" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="8" t="s">
         <v>54</v>
       </c>
@@ -2915,7 +2918,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="50.25" customHeight="1">
+    <row r="29" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="8" t="s">
         <v>60</v>
       </c>
@@ -2938,7 +2941,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="50.25" customHeight="1">
+    <row r="30" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
@@ -2961,7 +2964,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="50.25" customHeight="1">
+    <row r="31" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
         <v>70</v>
       </c>
@@ -2975,274 +2978,274 @@
         <v>71</v>
       </c>
       <c r="F31" s="10" t="s">
+        <v>326</v>
+      </c>
+      <c r="G31" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="G31" s="10" t="s">
+      <c r="H31" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="92" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B32" s="8" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="C32" s="8" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B32" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="8" t="s">
-        <v>76</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="9" t="s">
+        <v>75</v>
+      </c>
+      <c r="F32" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="G32" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="H32" s="10" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="8" t="s">
         <v>78</v>
       </c>
-      <c r="G32" s="9" t="s">
-        <v>79</v>
-      </c>
-      <c r="H32" s="15" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B33" s="8" t="s">
-        <v>81</v>
-      </c>
       <c r="C33" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="F33" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="G33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H33" s="10" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="G33" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H33" s="10" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B34" s="8" t="s">
-        <v>86</v>
-      </c>
       <c r="C34" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G34" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="C35" s="8" t="s">
         <v>87</v>
-      </c>
-      <c r="F34" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="10" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B35" s="8" t="s">
-        <v>90</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="36" spans="2:8" ht="50.25" customHeight="1">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="36" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="8" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="2:8" ht="50.25" customHeight="1">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="37" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>104</v>
-      </c>
-      <c r="H37" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" ht="50.25" customHeight="1">
+        <v>98</v>
+      </c>
+      <c r="H37" s="32" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>108</v>
+        <v>333</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>109</v>
+        <v>334</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="50.25" customHeight="1">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="8" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="50.25" customHeight="1">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="50.25" customHeight="1">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="9" t="s">
+        <v>113</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" s="10" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="11" t="s">
+        <v>116</v>
+      </c>
+      <c r="C42" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D42" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="E42" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F42" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="G42" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H42" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" s="9" t="s">
+    </row>
+    <row r="44" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="10" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B42" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C42" s="11" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" s="11" t="s">
-        <v>127</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>128</v>
-      </c>
-      <c r="F42" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="G42" s="10" t="s">
-        <v>130</v>
-      </c>
-      <c r="H42" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="18">
-      <c r="B44" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="18">
+    </row>
+    <row r="45" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="6" t="s">
         <v>13</v>
       </c>
@@ -3265,306 +3268,306 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="50.25" customHeight="1">
+    <row r="46" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="8" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="50.25" customHeight="1">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="8" t="s">
-        <v>139</v>
+        <v>130</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>141</v>
+        <v>132</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>143</v>
+        <v>134</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="50.25" customHeight="1">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="8" t="s">
-        <v>145</v>
+        <v>136</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>147</v>
+        <v>138</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="50.25" customHeight="1">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="8" t="s">
-        <v>149</v>
+        <v>140</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>150</v>
+        <v>141</v>
       </c>
       <c r="F49" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G49" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G49" s="10" t="s">
-        <v>151</v>
-      </c>
       <c r="H49" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="50.25" customHeight="1">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="8" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>154</v>
+        <v>145</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="50.25" customHeight="1">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="8" t="s">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>158</v>
+        <v>149</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>159</v>
+        <v>150</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="50.25" customHeight="1">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="8" t="s">
-        <v>161</v>
+        <v>152</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="50.25" customHeight="1">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="8" t="s">
-        <v>165</v>
+        <v>156</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>167</v>
+        <v>158</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>168</v>
+        <v>159</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>169</v>
+        <v>160</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="50.25" customHeight="1">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="8" t="s">
-        <v>171</v>
+        <v>162</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>173</v>
+        <v>164</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>174</v>
+        <v>165</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="50.25" customHeight="1">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="8" t="s">
-        <v>176</v>
+        <v>167</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>177</v>
+        <v>168</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>178</v>
+        <v>169</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>179</v>
+        <v>170</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="50.25" customHeight="1">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11" t="s">
-        <v>181</v>
+        <v>172</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>166</v>
+        <v>157</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>182</v>
+        <v>173</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>183</v>
+        <v>174</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>184</v>
+        <v>175</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="50.25" customHeight="1">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="8" t="s">
-        <v>186</v>
+        <v>177</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>140</v>
+        <v>131</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>187</v>
+        <v>178</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>142</v>
+        <v>133</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>188</v>
+        <v>179</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="50.25" customHeight="1">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="8" t="s">
-        <v>190</v>
+        <v>181</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>191</v>
+        <v>182</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>192</v>
+        <v>183</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>193</v>
+        <v>184</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>194</v>
+        <v>185</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="18">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -3573,12 +3576,12 @@
       <c r="G59" s="13"/>
       <c r="H59" s="14"/>
     </row>
-    <row r="60" spans="2:8" ht="18">
+    <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="18">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3601,191 +3604,191 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="50.25" customHeight="1">
+    <row r="62" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="8" t="s">
-        <v>197</v>
+        <v>188</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>198</v>
+        <v>189</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>199</v>
+        <v>190</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>200</v>
+        <v>191</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="50.25" customHeight="1">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="8" t="s">
-        <v>202</v>
+        <v>193</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>203</v>
+        <v>194</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>204</v>
+        <v>195</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>205</v>
+        <v>196</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>206</v>
+        <v>197</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="50.25" customHeight="1">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="8" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="50.25" customHeight="1">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="8" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="50.25" customHeight="1">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="8" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>221</v>
+        <v>212</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="50.25" customHeight="1">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="19" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>229</v>
+        <v>220</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="50.25" customHeight="1">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="19" t="s">
-        <v>232</v>
+        <v>223</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>233</v>
+        <v>224</v>
       </c>
       <c r="D68" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="50.25" customHeight="1">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="18" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>240</v>
+        <v>231</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>241</v>
+        <v>232</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="18">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -3794,12 +3797,12 @@
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="2:8" ht="18">
+    <row r="71" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="18">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="6" t="s">
         <v>13</v>
       </c>
@@ -3822,127 +3825,127 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="50.25" customHeight="1">
+    <row r="73" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="8" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="50.25" customHeight="1">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="8" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="50.25" customHeight="1">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="8" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="50.25" customHeight="1">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="8" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="50.25" customHeight="1">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="8" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="18">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="28" t="s">
         <v>13</v>
       </c>
@@ -3965,127 +3968,127 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="50.25" customHeight="1">
+    <row r="81" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="30" t="s">
+        <v>262</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>263</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>265</v>
+      </c>
+      <c r="F81" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G81" s="31" t="s">
+        <v>267</v>
+      </c>
+      <c r="H81" s="31" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="82" spans="2:9" ht="192" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>270</v>
+      </c>
+      <c r="D82" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="E82" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="F82" s="31" t="s">
+        <v>266</v>
+      </c>
+      <c r="G82" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="H82" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="E81" s="31" t="s">
+    </row>
+    <row r="83" spans="2:9" ht="192" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="C83" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="G81" s="31" t="s">
+      <c r="D83" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="E83" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="F83" s="31" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B82" s="30" t="s">
+      <c r="G83" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="C82" s="30" t="s">
+      <c r="H83" s="31" t="s">
         <v>279</v>
       </c>
-      <c r="D82" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E82" s="31" t="s">
+    </row>
+    <row r="84" spans="2:9" ht="203.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="F82" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="G82" s="31" t="s">
+      <c r="C84" s="30" t="s">
         <v>281</v>
       </c>
-      <c r="H82" s="31" t="s">
+      <c r="D84" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="E84" s="31" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B83" s="30" t="s">
+      <c r="F84" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="G84" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="D83" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E83" s="31" t="s">
+      <c r="H84" s="31" t="s">
         <v>285</v>
       </c>
-      <c r="F83" s="31" t="s">
+    </row>
+    <row r="85" spans="2:9" ht="153" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="G83" s="31" t="s">
+      <c r="C85" s="30" t="s">
         <v>287</v>
       </c>
-      <c r="H83" s="31" t="s">
+      <c r="D85" s="30" t="s">
+        <v>264</v>
+      </c>
+      <c r="E85" s="31" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B84" s="30" t="s">
+      <c r="F85" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="30" t="s">
+      <c r="G85" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="D84" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E84" s="31" t="s">
+      <c r="H85" s="31" t="s">
         <v>291</v>
       </c>
-      <c r="F84" s="31" t="s">
+    </row>
+    <row r="87" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="G84" s="31" t="s">
-        <v>293</v>
-      </c>
-      <c r="H84" s="31" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="85" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B85" s="30" t="s">
-        <v>295</v>
-      </c>
-      <c r="C85" s="30" t="s">
-        <v>296</v>
-      </c>
-      <c r="D85" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E85" s="31" t="s">
-        <v>297</v>
-      </c>
-      <c r="F85" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="G85" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="H85" s="31" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="18">
-      <c r="B87" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" ht="18">
+    </row>
+    <row r="88" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="6" t="s">
         <v>13</v>
       </c>
@@ -4108,142 +4111,142 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="50.25" customHeight="1">
+    <row r="89" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="8" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" ht="50.25" customHeight="1">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="8" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G90" s="10" t="s">
+        <v>301</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="8" t="s">
+        <v>303</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>131</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>304</v>
+      </c>
+      <c r="F91" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="G91" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H91" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="92" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="11" t="s">
+        <v>308</v>
+      </c>
+      <c r="C92" s="11" t="s">
+        <v>309</v>
+      </c>
+      <c r="D92" s="11" t="s">
         <v>310</v>
       </c>
-      <c r="H90" s="10" t="s">
+      <c r="E92" s="10" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B91" s="8" t="s">
+      <c r="F92" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E91" s="9" t="s">
+      <c r="G92" s="10" t="s">
         <v>313</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="H92" s="10" t="s">
         <v>314</v>
       </c>
-      <c r="G91" s="10" t="s">
+    </row>
+    <row r="93" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="C93" s="8" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B92" s="11" t="s">
+      <c r="D93" s="8" t="s">
+        <v>310</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>317</v>
-      </c>
-      <c r="C92" s="11" t="s">
-        <v>318</v>
-      </c>
-      <c r="D92" s="11" t="s">
-        <v>319</v>
-      </c>
-      <c r="E92" s="10" t="s">
-        <v>320</v>
-      </c>
-      <c r="F92" s="10" t="s">
-        <v>321</v>
-      </c>
-      <c r="G92" s="10" t="s">
-        <v>322</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B93" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" ht="50.25" customHeight="1">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="8" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="I94" s="27"/>
     </row>
@@ -4254,6 +4257,14 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -4262,7 +4273,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x010100FB0BDFD3C69BE04CA0B6EBFBB59E4559" ma:contentTypeVersion="5" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="752b2ff175b05b03e0c035222de06982">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="6d91bb22-1267-46fa-8e61-645dc3a0f267" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="1718121399b3c72a7290a669e49a9f43" ns3:_="">
     <xsd:import namespace="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
@@ -4412,22 +4423,44 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350613E8-C7A8-47A8-A984-080AEEB682C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD63C88E-B181-4E7E-99E9-22F3DCB37E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16BA752-8E69-44C1-8FFF-9EFCCB30E74D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350613E8-C7A8-47A8-A984-080AEEB682C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD63C88E-B181-4E7E-99E9-22F3DCB37E93}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16BA752-8E69-44C1-8FFF-9EFCCB30E74D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/総合テスト/総合テスト仕様書.xlsx
+++ b/総合テスト/総合テスト仕様書.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29116"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/riku_yamashita_avantcorp_com/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wakana.okubo\Documents\AVANT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8B83B98A-F94F-4AC2-8E71-4D293991D583}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5BF8E9BD-3EB4-4C0F-AA9D-488884C66732}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="334">
   <si>
     <t>総合テスト仕様書</t>
     <phoneticPr fontId="2"/>
@@ -485,7 +485,8 @@
     <t>在庫数を超える数量をカートに追加しようとした場合 (JSレベル)</t>
   </si>
   <si>
-    <t>商品B(在庫5)の詳細モーダル表示</t>
+    <t>商品B(在庫１5)の詳細モーダル表示</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>1. 数量入力欄に「16」を入力しようとする (または入力してボタンを押す)。</t>
@@ -544,8 +545,9 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>属性により、6以上の入力ができない。</t>
-    </r>
+      <t>属性により、１6以上の入力ができない。</t>
+    </r>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ST-C-005</t>
@@ -563,44 +565,6 @@
     <t>1. 画面右上のカートアイコンをクリックする。</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>1. カートモーダル (</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>cartModal</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>) が表示されること。
-2. モーダル内に商品Aの情報（名前、単価、数量=3、小計=2500）が表示されること。
-3. 合計金額が「7500」円と表示されること。
-4. 「注文手続きへ」ボタンが有効であること。</t>
-    </r>
-  </si>
-  <si>
     <t>ST-C-006</t>
   </si>
   <si>
@@ -614,8 +578,9 @@
   </si>
   <si>
     <t>1. カートモーダルが表示されること。
-2. 商品A (数量3, 小計7500) と商品B (数量1, 小計3200) が表示されること。
-3. 合計金額が「10700」円と表示されること。</t>
+2. 商品A (数量3, 小計10,500) と商品B (数量1, 小計4,200) が表示されること。
+3. 合計金額が「14,700」円と表示されること。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ST-C-007</t>
@@ -651,9 +616,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 商品Aの数量が「4」、小計が「10000」円に更新されること。
-2. 合計金額が「13200」円 (10000+3200) に更新されること。
+    <t>1. 商品Aの数量が「4」、小計が「14,000」円に更新されること。
+2. 合計金額が「18,200」円 (14,000+4,200) に更新されること。
 3. カートアイコンのバッジが「5」 (4+1) に更新されること。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ST-C-009</t>
@@ -670,9 +636,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>1. 商品Aの数量が「1」、小計が「2500」円に更新されること。
-2. 合計金額が「5700」円 (2500+3200) に更新されること。
+    <t>1. 商品Aの数量が「1」、小計が「3,500」円に更新されること。
+2. 合計金額が「7,700」円 (3,500+4,200) に更新されること。
 3. カートアイコンのバッジが「2」 (1+1) に更新されること。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ST-C-010</t>
@@ -732,12 +699,9 @@
     <t>カートモーダルで数量を0や負数に変更しようとした場合 (JS/API)</t>
   </si>
   <si>
-    <t>商品Aがカートに1個入っている</t>
-  </si>
-  <si>
-    <t>1. カートモーダルを表示。
-2. 商品Aの数量を「0」に変更する。
-3. (可能なら)商品Aの数量を「-1」に変更する。</t>
+    <t xml:space="preserve">1. カートモーダルを表示。
+2. 商品Bの数量を「0」に変更する。
+</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -815,8 +779,9 @@
   <si>
     <t>1. カートモーダルから商品Aの行が削除されること。
 2. 商品Bのみが表示されていること。
-3. 合計金額が「3200」円に更新されること。
+3. 合計金額が「4,200」円に更新されること。
 4. カートアイコンのバッジが「1」に更新されること。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ST-C-013</t>
@@ -1597,12 +1562,6 @@
     <t>商品情報（名前、価格、画像など）が正しい形式・内容で返ってくるか</t>
   </si>
   <si>
-    <t>カテゴリ表示後、任意の商品カードが表示されている</t>
-  </si>
-  <si>
-    <t>1. 任意の商品カードの「詳細を見る」ボタンをクリックする</t>
-  </si>
-  <si>
     <t>モーダルが表示される 商品名・価格・画像などが正しく表示されている</t>
   </si>
   <si>
@@ -1657,7 +1616,7 @@
     <t>1. index.html を表示。
 2. 商品Aの詳細を表示し、数量2でカートに追加。
 3. 商品Bの詳細を表示し、数量1でカートに追加。
-4. カートモーダルを表示し、内容（商品A x2, 商品B x1, 合計4000円）を確認。
+4. カートモーダルを表示し、内容（商品A x2, 商品B x1, 合計11200円）を確認。
 5. 「注文手続きへ」をクリック。
 6. 有効な顧客情報を入力。
 7. 「注文を確定する」をクリック。</t>
@@ -1684,7 +1643,7 @@
 4. カートモーダルを表示。
 5. 商品Aの数量を1に変更。
 6. 商品Bを削除。
-7. カートの内容（商品A x1, 合計1000円）を確認。
+7. カートの内容（商品A x1, 合計3500円）を確認。
 8. 「注文手続きへ」をクリックし、顧客情報を入力して注文を確定する。</t>
   </si>
   <si>
@@ -1938,6 +1897,58 @@
   </si>
   <si>
     <t>1. 処理の開始・終了、重要なパラメータ（注文IDなど）、エラー発生時の詳細情報などがログに出力されていること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. カートモーダル (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cartModal</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>) が表示されること。
+2. モーダル内に商品Aの情報（名前、単価、数量=3、小計=10,500）が表示されること。
+3. 合計金額が「10,500」円と表示されること。
+4. 「注文手続きへ」ボタンが有効であること。</t>
+    </r>
+  </si>
+  <si>
+    <t>「デスク周辺」カテゴリ表示後、商品カードが表示されている</t>
+    <rPh sb="4" eb="6">
+      <t>シュウヘン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 商品Aの商品カードの「詳細を見る」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -1945,7 +1956,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2182,7 +2193,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2279,6 +2290,9 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2294,6 +2308,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2615,95 +2633,95 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5E3F2-C487-43AA-A38B-87CA8BE4C9AD}">
   <dimension ref="B1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C78" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G97" sqref="G97"/>
+    <sheetView tabSelected="1" topLeftCell="D46" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.625" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="1" max="1" width="8.625" style="1"/>
-    <col min="2" max="2" width="11.125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="8.58203125" style="1"/>
+    <col min="2" max="2" width="11.08203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.25" style="1" customWidth="1"/>
-    <col min="4" max="4" width="14.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.08203125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="46.5" style="5" customWidth="1"/>
     <col min="6" max="6" width="35.25" style="5" customWidth="1"/>
     <col min="7" max="7" width="54.25" style="5" customWidth="1"/>
-    <col min="8" max="8" width="59.375" style="5" customWidth="1"/>
-    <col min="9" max="16384" width="8.625" style="1"/>
+    <col min="8" max="8" width="59.33203125" style="5" customWidth="1"/>
+    <col min="9" max="16384" width="8.58203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3" ht="18">
+    <row r="1" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:3" ht="18">
+    <row r="2" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="2:3" ht="18">
+    <row r="3" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:3" ht="18">
+    <row r="4" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B4" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="18">
+    <row r="5" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="2:3" ht="18">
+    <row r="6" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B6" s="4"/>
     </row>
-    <row r="7" spans="2:3" ht="18">
+    <row r="7" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B7" s="2" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" ht="18">
+    <row r="8" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B8" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" ht="18">
+    <row r="9" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B9" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" ht="18">
+    <row r="10" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B10" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" ht="18">
+    <row r="11" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C11" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" ht="18">
+    <row r="12" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="C12" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" ht="18">
+    <row r="13" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B13" s="3" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:3" ht="18">
+    <row r="15" spans="2:3" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B15" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="2:8" ht="18">
+    <row r="17" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B17" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="2:8" ht="18">
+    <row r="18" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B18" s="6" t="s">
         <v>13</v>
       </c>
@@ -2726,7 +2744,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="2:8" ht="50.25" customHeight="1">
+    <row r="19" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B19" s="8" t="s">
         <v>20</v>
       </c>
@@ -2749,7 +2767,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="2:8" ht="50.25" customHeight="1">
+    <row r="20" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B20" s="8" t="s">
         <v>27</v>
       </c>
@@ -2772,7 +2790,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="2:8" ht="50.25" customHeight="1">
+    <row r="21" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B21" s="8" t="s">
         <v>33</v>
       </c>
@@ -2795,7 +2813,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="22" spans="2:8" ht="50.25" customHeight="1">
+    <row r="22" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B22" s="8" t="s">
         <v>39</v>
       </c>
@@ -2818,7 +2836,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:8" ht="50.25" customHeight="1">
+    <row r="23" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B23" s="11" t="s">
         <v>43</v>
       </c>
@@ -2841,7 +2859,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="24" spans="2:8" ht="50.25" customHeight="1">
+    <row r="24" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B24" s="8" t="s">
         <v>48</v>
       </c>
@@ -2864,12 +2882,12 @@
         <v>52</v>
       </c>
     </row>
-    <row r="26" spans="2:8" ht="18">
+    <row r="26" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B26" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="27" spans="2:8" ht="18">
+    <row r="27" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B27" s="6" t="s">
         <v>13</v>
       </c>
@@ -2892,7 +2910,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="2:8" ht="50.25" customHeight="1">
+    <row r="28" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B28" s="8" t="s">
         <v>54</v>
       </c>
@@ -2915,7 +2933,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="29" spans="2:8" ht="50.25" customHeight="1">
+    <row r="29" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B29" s="8" t="s">
         <v>60</v>
       </c>
@@ -2938,7 +2956,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="30" spans="2:8" ht="50.25" customHeight="1">
+    <row r="30" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B30" s="8" t="s">
         <v>65</v>
       </c>
@@ -2961,7 +2979,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="2:8" ht="50.25" customHeight="1">
+    <row r="31" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B31" s="11" t="s">
         <v>70</v>
       </c>
@@ -2980,11 +2998,11 @@
       <c r="G31" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="H31" s="15" t="s">
+      <c r="H31" s="10" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="32" spans="2:8" ht="50.25" customHeight="1">
+    <row r="32" spans="2:8" ht="92.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="8" t="s">
         <v>75</v>
       </c>
@@ -3004,12 +3022,12 @@
         <v>79</v>
       </c>
       <c r="H32" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="8" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B33" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="C33" s="8" t="s">
         <v>76</v>
@@ -3018,21 +3036,21 @@
         <v>22</v>
       </c>
       <c r="E33" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F33" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="G33" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G33" s="9" t="s">
+      <c r="H33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="H33" s="10" t="s">
+    </row>
+    <row r="34" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34" s="8" t="s">
         <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B34" s="8" t="s">
-        <v>86</v>
       </c>
       <c r="C34" s="8" t="s">
         <v>76</v>
@@ -3041,159 +3059,159 @@
         <v>22</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="9" t="s">
         <v>87</v>
       </c>
-      <c r="F34" s="9" t="s">
+      <c r="G34" s="9" t="s">
+        <v>83</v>
+      </c>
+      <c r="H34" s="10" t="s">
         <v>88</v>
       </c>
-      <c r="G34" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="H34" s="10" t="s">
+    </row>
+    <row r="35" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35" s="8" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="35" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B35" s="8" t="s">
+      <c r="C35" s="8" t="s">
         <v>90</v>
-      </c>
-      <c r="C35" s="8" t="s">
-        <v>91</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="F35" s="9" t="s">
         <v>92</v>
       </c>
-      <c r="F35" s="9" t="s">
+      <c r="G35" s="10" t="s">
         <v>93</v>
       </c>
-      <c r="G35" s="10" t="s">
+      <c r="H35" s="10" t="s">
         <v>94</v>
       </c>
-      <c r="H35" s="10" t="s">
+    </row>
+    <row r="36" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36" s="8" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B36" s="8" t="s">
-        <v>96</v>
-      </c>
       <c r="C36" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="F36" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="F36" s="9" t="s">
+      <c r="G36" s="10" t="s">
         <v>98</v>
       </c>
-      <c r="G36" s="10" t="s">
+      <c r="H36" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="10" t="s">
+    </row>
+    <row r="37" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B37" s="8" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B37" s="8" t="s">
-        <v>101</v>
-      </c>
       <c r="C37" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="F37" s="9" t="s">
         <v>102</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="G37" s="10" t="s">
         <v>103</v>
       </c>
-      <c r="G37" s="10" t="s">
+      <c r="H37" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="H37" t="s">
+    </row>
+    <row r="38" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B38" s="8" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="38" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B38" s="8" t="s">
-        <v>106</v>
-      </c>
       <c r="C38" s="8" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="F38" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="G38" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="H38" s="15" t="s">
         <v>108</v>
       </c>
-      <c r="G38" s="10" t="s">
+    </row>
+    <row r="39" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B39" s="8" t="s">
         <v>109</v>
       </c>
-      <c r="H38" s="15" t="s">
+      <c r="C39" s="8" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B39" s="8" t="s">
-        <v>111</v>
-      </c>
-      <c r="C39" s="8" t="s">
-        <v>112</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="9" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="F39" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G39" s="10" t="s">
+    </row>
+    <row r="40" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B40" s="8" t="s">
         <v>114</v>
       </c>
-      <c r="H39" s="10" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="40" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B40" s="8" t="s">
-        <v>116</v>
-      </c>
       <c r="C40" s="8" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="9" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="9" t="s">
+        <v>116</v>
+      </c>
+      <c r="G40" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="F40" s="9" t="s">
+      <c r="H40" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="G40" s="10" t="s">
+    </row>
+    <row r="41" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B41" s="8" t="s">
         <v>119</v>
-      </c>
-      <c r="H40" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B41" s="8" t="s">
-        <v>121</v>
       </c>
       <c r="C41" s="8" t="s">
         <v>76</v>
@@ -3202,47 +3220,47 @@
         <v>28</v>
       </c>
       <c r="E41" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="F41" s="9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G41" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="H41" s="10" t="s">
         <v>122</v>
       </c>
-      <c r="F41" s="9" t="s">
-        <v>93</v>
-      </c>
-      <c r="G41" s="9" t="s">
+    </row>
+    <row r="42" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B42" s="11" t="s">
         <v>123</v>
       </c>
-      <c r="H41" s="10" t="s">
+      <c r="C42" s="11" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="42" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B42" s="11" t="s">
+      <c r="D42" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>126</v>
       </c>
-      <c r="D42" s="11" t="s">
+      <c r="F42" s="10" t="s">
         <v>127</v>
       </c>
-      <c r="E42" s="10" t="s">
+      <c r="G42" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F42" s="10" t="s">
+      <c r="H42" s="10" t="s">
         <v>129</v>
       </c>
-      <c r="G42" s="10" t="s">
+    </row>
+    <row r="44" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B44" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="H42" s="10" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" ht="18">
-      <c r="B44" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" ht="18">
+    </row>
+    <row r="45" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B45" s="6" t="s">
         <v>13</v>
       </c>
@@ -3265,306 +3283,306 @@
         <v>19</v>
       </c>
     </row>
-    <row r="46" spans="2:8" ht="50.25" customHeight="1">
+    <row r="46" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="F46" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="G46" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F46" s="9" t="s">
+      <c r="H46" s="10" t="s">
         <v>136</v>
       </c>
-      <c r="G46" s="10" t="s">
+    </row>
+    <row r="47" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B47" s="8" t="s">
         <v>137</v>
       </c>
-      <c r="H46" s="10" t="s">
+      <c r="C47" s="8" t="s">
         <v>138</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B47" s="8" t="s">
-        <v>139</v>
-      </c>
-      <c r="C47" s="8" t="s">
-        <v>140</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="F47" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G47" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="F47" s="9" t="s">
+      <c r="H47" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="G47" s="10" t="s">
+    </row>
+    <row r="48" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B48" s="8" t="s">
         <v>143</v>
       </c>
-      <c r="H47" s="10" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="48" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B48" s="8" t="s">
-        <v>145</v>
-      </c>
       <c r="C48" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="F48" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="H48" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="F48" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G48" s="10" t="s">
+    </row>
+    <row r="49" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B49" s="8" t="s">
         <v>147</v>
       </c>
-      <c r="H48" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B49" s="8" t="s">
-        <v>149</v>
-      </c>
       <c r="C49" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="H49" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F49" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G49" s="10" t="s">
+    </row>
+    <row r="50" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B50" s="8" t="s">
         <v>151</v>
       </c>
-      <c r="H49" s="10" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B50" s="8" t="s">
-        <v>153</v>
-      </c>
       <c r="C50" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E50" s="9" t="s">
+        <v>152</v>
+      </c>
+      <c r="F50" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G50" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="H50" s="10" t="s">
         <v>154</v>
       </c>
-      <c r="F50" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G50" s="10" t="s">
+    </row>
+    <row r="51" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B51" s="8" t="s">
         <v>155</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="51" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B51" s="8" t="s">
-        <v>157</v>
-      </c>
       <c r="C51" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E51" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="F51" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H51" s="10" t="s">
         <v>158</v>
       </c>
-      <c r="F51" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G51" s="10" t="s">
+    </row>
+    <row r="52" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B52" s="8" t="s">
         <v>159</v>
       </c>
-      <c r="H51" s="10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B52" s="8" t="s">
-        <v>161</v>
-      </c>
       <c r="C52" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E52" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="F52" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G52" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="H52" s="10" t="s">
         <v>162</v>
       </c>
-      <c r="F52" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G52" s="10" t="s">
+    </row>
+    <row r="53" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B53" s="8" t="s">
         <v>163</v>
       </c>
-      <c r="H52" s="10" t="s">
+      <c r="C53" s="8" t="s">
         <v>164</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B53" s="8" t="s">
-        <v>165</v>
-      </c>
-      <c r="C53" s="8" t="s">
-        <v>166</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="9" t="s">
+        <v>165</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="G53" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="H53" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="G53" s="9" t="s">
+    </row>
+    <row r="54" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B54" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H53" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B54" s="8" t="s">
-        <v>171</v>
-      </c>
       <c r="C54" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="F54" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="G54" s="10" t="s">
         <v>172</v>
       </c>
-      <c r="F54" s="9" t="s">
+      <c r="H54" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="G54" s="10" t="s">
+    </row>
+    <row r="55" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B55" s="8" t="s">
         <v>174</v>
       </c>
-      <c r="H54" s="10" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B55" s="8" t="s">
-        <v>176</v>
-      </c>
       <c r="C55" s="8" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="9" t="s">
+        <v>175</v>
+      </c>
+      <c r="F55" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="G55" s="10" t="s">
         <v>177</v>
       </c>
-      <c r="F55" s="9" t="s">
+      <c r="H55" s="10" t="s">
         <v>178</v>
       </c>
-      <c r="G55" s="10" t="s">
+    </row>
+    <row r="56" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B56" s="11" t="s">
         <v>179</v>
       </c>
-      <c r="H55" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="56" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B56" s="11" t="s">
-        <v>181</v>
-      </c>
       <c r="C56" s="11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E56" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="G56" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="F56" s="10" t="s">
+      <c r="H56" s="10" t="s">
         <v>183</v>
       </c>
-      <c r="G56" s="15" t="s">
+    </row>
+    <row r="57" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B57" s="8" t="s">
         <v>184</v>
       </c>
-      <c r="H56" s="10" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B57" s="8" t="s">
-        <v>186</v>
-      </c>
       <c r="C57" s="8" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E57" s="9" t="s">
+        <v>185</v>
+      </c>
+      <c r="F57" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="G57" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H57" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="F57" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="G57" s="9" t="s">
+    </row>
+    <row r="58" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B58" s="8" t="s">
         <v>188</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="C58" s="8" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B58" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="C58" s="8" t="s">
-        <v>191</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E58" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="F58" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="F58" s="9" t="s">
+      <c r="H58" s="10" t="s">
         <v>193</v>
       </c>
-      <c r="G58" s="9" t="s">
-        <v>194</v>
-      </c>
-      <c r="H58" s="10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" ht="18">
+    </row>
+    <row r="59" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B59" s="12"/>
       <c r="C59" s="12"/>
       <c r="D59" s="12"/>
@@ -3573,12 +3591,12 @@
       <c r="G59" s="13"/>
       <c r="H59" s="14"/>
     </row>
-    <row r="60" spans="2:8" ht="18">
+    <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="2" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" ht="18">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B61" s="6" t="s">
         <v>13</v>
       </c>
@@ -3601,191 +3619,191 @@
         <v>19</v>
       </c>
     </row>
-    <row r="62" spans="2:8" ht="50.25" customHeight="1">
+    <row r="62" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="8" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G62" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="H62" s="26" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B63" s="8" t="s">
         <v>200</v>
       </c>
-      <c r="H62" s="26" t="s">
+      <c r="C63" s="8" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B63" s="8" t="s">
-        <v>202</v>
-      </c>
-      <c r="C63" s="8" t="s">
-        <v>203</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E63" s="17" t="s">
+        <v>202</v>
+      </c>
+      <c r="F63" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="G63" s="23" t="s">
         <v>204</v>
       </c>
-      <c r="F63" s="8" t="s">
+      <c r="H63" s="26" t="s">
         <v>205</v>
       </c>
-      <c r="G63" s="23" t="s">
+    </row>
+    <row r="64" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B64" s="8" t="s">
         <v>206</v>
       </c>
-      <c r="H63" s="26" t="s">
+      <c r="C64" s="8" t="s">
         <v>207</v>
-      </c>
-    </row>
-    <row r="64" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B64" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="C64" s="8" t="s">
-        <v>209</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="8" t="s">
+        <v>208</v>
+      </c>
+      <c r="F64" s="8" t="s">
+        <v>209</v>
+      </c>
+      <c r="G64" s="23" t="s">
         <v>210</v>
       </c>
-      <c r="F64" s="8" t="s">
+      <c r="H64" s="26" t="s">
         <v>211</v>
       </c>
-      <c r="G64" s="23" t="s">
+    </row>
+    <row r="65" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B65" s="8" t="s">
         <v>212</v>
       </c>
-      <c r="H64" s="26" t="s">
+      <c r="C65" s="8" t="s">
         <v>213</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B65" s="8" t="s">
-        <v>214</v>
-      </c>
-      <c r="C65" s="8" t="s">
-        <v>215</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="8" t="s">
+        <v>214</v>
+      </c>
+      <c r="F65" s="8" t="s">
+        <v>215</v>
+      </c>
+      <c r="G65" s="23" t="s">
         <v>216</v>
       </c>
-      <c r="F65" s="8" t="s">
+      <c r="H65" s="26" t="s">
         <v>217</v>
       </c>
-      <c r="G65" s="23" t="s">
+    </row>
+    <row r="66" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B66" s="8" t="s">
         <v>218</v>
       </c>
-      <c r="H65" s="26" t="s">
+      <c r="C66" s="8" t="s">
         <v>219</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B66" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="C66" s="8" t="s">
-        <v>221</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="8" t="s">
+        <v>220</v>
+      </c>
+      <c r="F66" s="8" t="s">
+        <v>221</v>
+      </c>
+      <c r="G66" s="23" t="s">
         <v>222</v>
       </c>
-      <c r="F66" s="8" t="s">
+      <c r="H66" s="26" t="s">
         <v>223</v>
       </c>
-      <c r="G66" s="23" t="s">
+    </row>
+    <row r="67" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B67" s="19" t="s">
         <v>224</v>
       </c>
-      <c r="H66" s="26" t="s">
+      <c r="C67" s="19" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B67" s="19" t="s">
-        <v>226</v>
-      </c>
-      <c r="C67" s="19" t="s">
-        <v>227</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="19" t="s">
+        <v>226</v>
+      </c>
+      <c r="F67" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G67" s="24" t="s">
         <v>228</v>
       </c>
-      <c r="F67" s="19" t="s">
+      <c r="H67" s="26" t="s">
         <v>229</v>
       </c>
-      <c r="G67" s="24" t="s">
+    </row>
+    <row r="68" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B68" s="19" t="s">
         <v>230</v>
       </c>
-      <c r="H67" s="26" t="s">
+      <c r="C68" s="18" t="s">
         <v>231</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B68" s="19" t="s">
-        <v>232</v>
-      </c>
-      <c r="C68" s="18" t="s">
-        <v>233</v>
       </c>
       <c r="D68" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E68" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="F68" s="18" t="s">
+        <v>209</v>
+      </c>
+      <c r="G68" s="25" t="s">
+        <v>233</v>
+      </c>
+      <c r="H68" s="26" t="s">
         <v>234</v>
       </c>
-      <c r="F68" s="18" t="s">
-        <v>211</v>
-      </c>
-      <c r="G68" s="25" t="s">
+    </row>
+    <row r="69" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B69" s="18" t="s">
         <v>235</v>
       </c>
-      <c r="H68" s="26" t="s">
+      <c r="C69" s="22" t="s">
         <v>236</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B69" s="18" t="s">
-        <v>237</v>
-      </c>
-      <c r="C69" s="22" t="s">
-        <v>238</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E69" s="21" t="s">
+        <v>237</v>
+      </c>
+      <c r="F69" s="18" t="s">
+        <v>238</v>
+      </c>
+      <c r="G69" s="25" t="s">
         <v>239</v>
       </c>
-      <c r="F69" s="18" t="s">
+      <c r="H69" s="26" t="s">
         <v>240</v>
       </c>
-      <c r="G69" s="25" t="s">
-        <v>241</v>
-      </c>
-      <c r="H69" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" ht="18">
+    </row>
+    <row r="70" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B70" s="12"/>
       <c r="C70" s="12"/>
       <c r="D70" s="12"/>
@@ -3794,12 +3812,12 @@
       <c r="G70" s="14"/>
       <c r="H70" s="14"/>
     </row>
-    <row r="71" spans="2:8" ht="18">
+    <row r="71" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="2" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="72" spans="2:8" ht="18">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B72" s="6" t="s">
         <v>13</v>
       </c>
@@ -3822,127 +3840,127 @@
         <v>19</v>
       </c>
     </row>
-    <row r="73" spans="2:8" ht="50.25" customHeight="1">
+    <row r="73" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="8" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="16" t="s">
+        <v>244</v>
+      </c>
+      <c r="F73" s="16" t="s">
+        <v>245</v>
+      </c>
+      <c r="G73" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="F73" s="16" t="s">
+      <c r="H73" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="G73" s="16" t="s">
+    </row>
+    <row r="74" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B74" s="8" t="s">
         <v>248</v>
       </c>
-      <c r="H73" s="16" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B74" s="8" t="s">
-        <v>250</v>
-      </c>
       <c r="C74" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E74" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="F74" s="16" t="s">
+        <v>250</v>
+      </c>
+      <c r="G74" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="F74" s="16" t="s">
+      <c r="H74" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="G74" s="16" t="s">
+    </row>
+    <row r="75" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B75" s="8" t="s">
         <v>253</v>
       </c>
-      <c r="H74" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B75" s="8" t="s">
-        <v>255</v>
-      </c>
       <c r="C75" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="16" t="s">
+        <v>254</v>
+      </c>
+      <c r="F75" s="16" t="s">
+        <v>332</v>
+      </c>
+      <c r="G75" s="16" t="s">
+        <v>333</v>
+      </c>
+      <c r="H75" s="16" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B76" s="8" t="s">
         <v>256</v>
       </c>
-      <c r="F75" s="16" t="s">
-        <v>257</v>
-      </c>
-      <c r="G75" s="16" t="s">
-        <v>258</v>
-      </c>
-      <c r="H75" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B76" s="8" t="s">
-        <v>260</v>
-      </c>
       <c r="C76" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E76" s="16" t="s">
+        <v>257</v>
+      </c>
+      <c r="F76" s="16" t="s">
+        <v>258</v>
+      </c>
+      <c r="G76" s="16" t="s">
+        <v>259</v>
+      </c>
+      <c r="H76" s="16" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B77" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="F76" s="16" t="s">
-        <v>262</v>
-      </c>
-      <c r="G76" s="16" t="s">
-        <v>263</v>
-      </c>
-      <c r="H76" s="16" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" ht="50.25" customHeight="1">
-      <c r="B77" s="8" t="s">
-        <v>265</v>
-      </c>
       <c r="C77" s="8" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E77" s="16" t="s">
+        <v>262</v>
+      </c>
+      <c r="F77" s="16" t="s">
+        <v>263</v>
+      </c>
+      <c r="G77" s="16" t="s">
+        <v>264</v>
+      </c>
+      <c r="H77" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B79" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="F77" s="16" t="s">
-        <v>267</v>
-      </c>
-      <c r="G77" s="16" t="s">
-        <v>268</v>
-      </c>
-      <c r="H77" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" ht="18">
-      <c r="B79" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="80" spans="2:8">
+    </row>
+    <row r="80" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B80" s="28" t="s">
         <v>13</v>
       </c>
@@ -3965,127 +3983,127 @@
         <v>19</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="50.25" customHeight="1">
+    <row r="81" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="30" t="s">
+        <v>267</v>
+      </c>
+      <c r="C81" s="30" t="s">
+        <v>268</v>
+      </c>
+      <c r="D81" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="E81" s="31" t="s">
+        <v>270</v>
+      </c>
+      <c r="F81" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="C81" s="30" t="s">
+      <c r="G81" s="31" t="s">
         <v>272</v>
       </c>
-      <c r="D81" s="30" t="s">
+      <c r="H81" s="31" t="s">
         <v>273</v>
       </c>
-      <c r="E81" s="31" t="s">
+    </row>
+    <row r="82" spans="2:9" ht="192" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B82" s="30" t="s">
         <v>274</v>
       </c>
-      <c r="F81" s="31" t="s">
+      <c r="C82" s="30" t="s">
         <v>275</v>
       </c>
-      <c r="G81" s="31" t="s">
+      <c r="D82" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="E82" s="31" t="s">
         <v>276</v>
       </c>
-      <c r="H81" s="31" t="s">
+      <c r="F82" s="31" t="s">
+        <v>271</v>
+      </c>
+      <c r="G82" s="31" t="s">
         <v>277</v>
       </c>
-    </row>
-    <row r="82" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B82" s="30" t="s">
+      <c r="H82" s="31" t="s">
         <v>278</v>
       </c>
-      <c r="C82" s="30" t="s">
+    </row>
+    <row r="83" spans="2:9" ht="192" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B83" s="30" t="s">
         <v>279</v>
       </c>
-      <c r="D82" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E82" s="31" t="s">
+      <c r="C83" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="F82" s="31" t="s">
-        <v>275</v>
-      </c>
-      <c r="G82" s="31" t="s">
+      <c r="D83" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="E83" s="31" t="s">
         <v>281</v>
       </c>
-      <c r="H82" s="31" t="s">
+      <c r="F83" s="31" t="s">
         <v>282</v>
       </c>
-    </row>
-    <row r="83" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B83" s="30" t="s">
+      <c r="G83" s="31" t="s">
         <v>283</v>
       </c>
-      <c r="C83" s="30" t="s">
+      <c r="H83" s="31" t="s">
         <v>284</v>
       </c>
-      <c r="D83" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E83" s="31" t="s">
+    </row>
+    <row r="84" spans="2:9" ht="203.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B84" s="30" t="s">
         <v>285</v>
       </c>
-      <c r="F83" s="31" t="s">
+      <c r="C84" s="30" t="s">
         <v>286</v>
       </c>
-      <c r="G83" s="31" t="s">
+      <c r="D84" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="E84" s="31" t="s">
         <v>287</v>
       </c>
-      <c r="H83" s="31" t="s">
+      <c r="F84" s="31" t="s">
         <v>288</v>
       </c>
-    </row>
-    <row r="84" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B84" s="30" t="s">
+      <c r="G84" s="31" t="s">
         <v>289</v>
       </c>
-      <c r="C84" s="30" t="s">
+      <c r="H84" s="31" t="s">
         <v>290</v>
       </c>
-      <c r="D84" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E84" s="31" t="s">
+    </row>
+    <row r="85" spans="2:9" ht="153" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B85" s="30" t="s">
         <v>291</v>
       </c>
-      <c r="F84" s="31" t="s">
+      <c r="C85" s="30" t="s">
         <v>292</v>
       </c>
-      <c r="G84" s="31" t="s">
+      <c r="D85" s="30" t="s">
+        <v>269</v>
+      </c>
+      <c r="E85" s="31" t="s">
         <v>293</v>
       </c>
-      <c r="H84" s="31" t="s">
+      <c r="F85" s="31" t="s">
         <v>294</v>
       </c>
-    </row>
-    <row r="85" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B85" s="30" t="s">
+      <c r="G85" s="31" t="s">
         <v>295</v>
       </c>
-      <c r="C85" s="30" t="s">
+      <c r="H85" s="31" t="s">
         <v>296</v>
       </c>
-      <c r="D85" s="30" t="s">
-        <v>273</v>
-      </c>
-      <c r="E85" s="31" t="s">
+    </row>
+    <row r="87" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B87" s="2" t="s">
         <v>297</v>
       </c>
-      <c r="F85" s="31" t="s">
-        <v>298</v>
-      </c>
-      <c r="G85" s="31" t="s">
-        <v>299</v>
-      </c>
-      <c r="H85" s="31" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="87" spans="2:9" ht="18">
-      <c r="B87" s="2" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="88" spans="2:9" ht="18">
+    </row>
+    <row r="88" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B88" s="6" t="s">
         <v>13</v>
       </c>
@@ -4108,142 +4126,142 @@
         <v>19</v>
       </c>
     </row>
-    <row r="89" spans="2:9" ht="50.25" customHeight="1">
+    <row r="89" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="8" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="90" spans="2:9" ht="50.25" customHeight="1">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="90" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="8" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G90" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="H90" s="10" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="91" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B91" s="8" t="s">
+        <v>308</v>
+      </c>
+      <c r="C91" s="8" t="s">
+        <v>138</v>
+      </c>
+      <c r="D91" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E91" s="9" t="s">
+        <v>309</v>
+      </c>
+      <c r="F91" s="9" t="s">
         <v>310</v>
       </c>
-      <c r="H90" s="10" t="s">
+      <c r="G91" s="10" t="s">
         <v>311</v>
       </c>
-    </row>
-    <row r="91" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B91" s="8" t="s">
+      <c r="H91" s="10" t="s">
         <v>312</v>
       </c>
-      <c r="C91" s="8" t="s">
-        <v>140</v>
-      </c>
-      <c r="D91" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E91" s="9" t="s">
+    </row>
+    <row r="92" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B92" s="11" t="s">
         <v>313</v>
       </c>
-      <c r="F91" s="9" t="s">
+      <c r="C92" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="G91" s="10" t="s">
+      <c r="D92" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="H91" s="10" t="s">
+      <c r="E92" s="10" t="s">
         <v>316</v>
       </c>
-    </row>
-    <row r="92" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B92" s="11" t="s">
+      <c r="F92" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="C92" s="11" t="s">
+      <c r="G92" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="D92" s="11" t="s">
+      <c r="H92" s="10" t="s">
         <v>319</v>
       </c>
-      <c r="E92" s="10" t="s">
+    </row>
+    <row r="93" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B93" s="8" t="s">
         <v>320</v>
       </c>
-      <c r="F92" s="10" t="s">
+      <c r="C93" s="8" t="s">
         <v>321</v>
       </c>
-      <c r="G92" s="10" t="s">
+      <c r="D93" s="8" t="s">
+        <v>315</v>
+      </c>
+      <c r="E93" s="9" t="s">
         <v>322</v>
-      </c>
-      <c r="H92" s="10" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="93" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B93" s="8" t="s">
-        <v>324</v>
-      </c>
-      <c r="C93" s="8" t="s">
-        <v>325</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>319</v>
-      </c>
-      <c r="E93" s="9" t="s">
-        <v>326</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G93" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H93" s="10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="94" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B94" s="8" t="s">
+        <v>325</v>
+      </c>
+      <c r="C94" s="8" t="s">
+        <v>326</v>
+      </c>
+      <c r="D94" s="8" t="s">
         <v>327</v>
       </c>
-      <c r="H93" s="10" t="s">
+      <c r="E94" s="9" t="s">
         <v>328</v>
-      </c>
-    </row>
-    <row r="94" spans="2:9" ht="50.25" customHeight="1">
-      <c r="B94" s="8" t="s">
-        <v>329</v>
-      </c>
-      <c r="C94" s="8" t="s">
-        <v>330</v>
-      </c>
-      <c r="D94" s="8" t="s">
-        <v>331</v>
-      </c>
-      <c r="E94" s="9" t="s">
-        <v>332</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="I94" s="27"/>
     </row>
@@ -4254,12 +4272,11 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4413,21 +4430,52 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350613E8-C7A8-47A8-A984-080AEEB682C2}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD63C88E-B181-4E7E-99E9-22F3DCB37E93}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16BA752-8E69-44C1-8FFF-9EFCCB30E74D}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E16BA752-8E69-44C1-8FFF-9EFCCB30E74D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD63C88E-B181-4E7E-99E9-22F3DCB37E93}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350613E8-C7A8-47A8-A984-080AEEB682C2}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/総合テスト/総合テスト仕様書.xlsx
+++ b/総合テスト/総合テスト仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\riku.yamashita\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AE0EE722-A5BB-44A7-AEB0-69F06AC2FAC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{ACDDCA8C-37F2-4A4F-A352-F841506FA4A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" xr2:uid="{A9687DEE-D9AA-413C-81E3-B4BFBEDA585F}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="474" uniqueCount="334">
   <si>
     <t>総合テスト仕様書</t>
     <phoneticPr fontId="2"/>
@@ -485,9 +485,71 @@
     <t>在庫数を超える数量をカートに追加しようとした場合 (JSレベル)</t>
   </si>
   <si>
+    <t>商品B(在庫１5)の詳細モーダル表示</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>1. 数量入力欄に「16」を入力しようとする (または入力してボタンを押す)。</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1. HTMLの</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>input</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>要素の</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>max</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF333333"/>
+        <rFont val="游ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>属性により、１6以上の入力ができない。</t>
+    </r>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ST-C-005</t>
   </si>
   <si>
@@ -513,6 +575,12 @@
   </si>
   <si>
     <t>1. カートアイコンをクリックする。</t>
+  </si>
+  <si>
+    <t>1. カートモーダルが表示されること。
+2. 商品A (数量3, 小計10,500) と商品B (数量1, 小計4,200) が表示されること。
+3. 合計金額が「14,700」円と表示されること。</t>
+    <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>ST-C-007</t>
@@ -548,6 +616,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>1. 商品Aの数量が「4」、小計が「14,000」円に更新されること。
+2. 合計金額が「18,200」円 (14,000+4,200) に更新されること。
+3. カートアイコンのバッジが「5」 (4+1) に更新されること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ST-C-009</t>
   </si>
   <si>
@@ -562,6 +636,12 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
+    <t>1. 商品Aの数量が「1」、小計が「3,500」円に更新されること。
+2. 合計金額が「7,700」円 (3,500+4,200) に更新されること。
+3. カートアイコンのバッジが「2」 (1+1) に更新されること。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <t>ST-C-010</t>
   </si>
   <si>
@@ -619,6 +699,12 @@
     <t>カートモーダルで数量を0や負数に変更しようとした場合 (JS/API)</t>
   </si>
   <si>
+    <t xml:space="preserve">1. カートモーダルを表示。
+2. 商品Bの数量を「0」に変更する。
+</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -688,6 +774,13 @@
   <si>
     <t>1. カートモーダルを表示する。
 2. 商品Aの行にある「削除」ボタンをクリックする。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. カートモーダルから商品Aの行が削除されること。
+2. 商品Bのみが表示されていること。
+3. 合計金額が「4,200」円に更新されること。
+4. カートアイコンのバッジが「1」に更新されること。</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -1469,12 +1562,6 @@
     <t>商品情報（名前、価格、画像など）が正しい形式・内容で返ってくるか</t>
   </si>
   <si>
-    <t>カテゴリ表示後、任意の商品カードが表示されている</t>
-  </si>
-  <si>
-    <t>1. 任意の商品カードの「詳細を見る」ボタンをクリックする</t>
-  </si>
-  <si>
     <t>モーダルが表示される 商品名・価格・画像などが正しく表示されている</t>
   </si>
   <si>
@@ -1529,7 +1616,7 @@
     <t>1. index.html を表示。
 2. 商品Aの詳細を表示し、数量2でカートに追加。
 3. 商品Bの詳細を表示し、数量1でカートに追加。
-4. カートモーダルを表示し、内容（商品A x2, 商品B x1, 合計4000円）を確認。
+4. カートモーダルを表示し、内容（商品A x2, 商品B x1, 合計11200円）を確認。
 5. 「注文手続きへ」をクリック。
 6. 有効な顧客情報を入力。
 7. 「注文を確定する」をクリック。</t>
@@ -1556,7 +1643,7 @@
 4. カートモーダルを表示。
 5. 商品Aの数量を1に変更。
 6. 商品Bを削除。
-7. カートの内容（商品A x1, 合計1000円）を確認。
+7. カートの内容（商品A x1, 合計3500円）を確認。
 8. 「注文手続きへ」をクリックし、顧客情報を入力して注文を確定する。</t>
   </si>
   <si>
@@ -1813,10 +1900,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>商品B(在庫１5)の詳細モーダル表示</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <r>
       <rPr>
         <sz val="11"/>
@@ -1826,56 +1909,6 @@
         <charset val="128"/>
         <scheme val="minor"/>
       </rPr>
-      <t>1. HTMLの</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>input</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>要素の</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>max</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF333333"/>
-        <rFont val="游ゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>属性により、１6以上の入力ができない。</t>
-    </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <r>
       <t>1. カートモーダル (</t>
     </r>
     <r>
@@ -1903,41 +1936,19 @@
 3. 合計金額が「10,500」円と表示されること。
 4. 「注文手続きへ」ボタンが有効であること。</t>
     </r>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. カートモーダルが表示されること。
-2. 商品A (数量3, 小計10,500) と商品B (数量1, 小計4,200) が表示されること。
-3. 合計金額が「14,700」円と表示されること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 商品Aの数量が「4」、小計が「14,000」円に更新されること。
-2. 合計金額が「18,200」円 (14,000+4,200) に更新されること。
-3. カートアイコンのバッジが「5」 (4+1) に更新されること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. 商品Aの数量が「1」、小計が「3,500」円に更新されること。
-2. 合計金額が「7,700」円 (3,500+4,200) に更新されること。
-3. カートアイコンのバッジが「2」 (1+1) に更新されること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>1. カートモーダルから商品Aの行が削除されること。
-2. 商品Bのみが表示されていること。
-3. 合計金額が「4,200」円に更新されること。
-4. カートアイコンのバッジが「1」に更新されること。</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>商品Bがカートに1個入っている</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t xml:space="preserve">1. カートモーダルを表示。
-2. 商品Bの数量を「0」に変更する。
-</t>
+  </si>
+  <si>
+    <t>「デスク周辺」カテゴリ表示後、商品カードが表示されている</t>
+    <rPh sb="4" eb="6">
+      <t>シュウヘン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1. 商品Aの商品カードの「詳細を見る」ボタンをクリックする</t>
+    <rPh sb="3" eb="5">
+      <t>ショウヒン</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -2279,7 +2290,7 @@
     <xf numFmtId="0" fontId="9" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -2618,8 +2629,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8E5E3F2-C487-43AA-A38B-87CA8BE4C9AD}">
   <dimension ref="B1:I94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D20" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.55000000000000004"/>
@@ -2978,271 +2989,271 @@
         <v>71</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>326</v>
+        <v>72</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="32" spans="2:8" ht="92" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" ht="92.15" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B32" s="8" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D32" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E32" s="9" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F32" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="G32" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="H32" s="15" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" ht="69.650000000000006" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="8" t="s">
         <v>76</v>
-      </c>
-      <c r="G32" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="H32" s="10" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" ht="69.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="B33" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="C33" s="8" t="s">
-        <v>74</v>
       </c>
       <c r="D33" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E33" s="9" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F33" s="9" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G33" s="9" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>329</v>
+        <v>84</v>
       </c>
     </row>
     <row r="34" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B34" s="8" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D34" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E34" s="9" t="s">
+        <v>86</v>
+      </c>
+      <c r="F34" s="9" t="s">
+        <v>87</v>
+      </c>
+      <c r="G34" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="F34" s="9" t="s">
-        <v>84</v>
-      </c>
-      <c r="G34" s="9" t="s">
-        <v>81</v>
-      </c>
       <c r="H34" s="10" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
     </row>
     <row r="35" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B35" s="8" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D35" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E35" s="9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F35" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>330</v>
+        <v>94</v>
       </c>
     </row>
     <row r="36" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B36" s="8" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D36" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E36" s="9" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="F36" s="9" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>331</v>
+        <v>99</v>
       </c>
     </row>
     <row r="37" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B37" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D37" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E37" s="9" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="F37" s="9" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>98</v>
+        <v>103</v>
       </c>
       <c r="H37" s="32" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B38" s="8" t="s">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="D38" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E38" s="9" t="s">
-        <v>101</v>
+        <v>106</v>
       </c>
       <c r="F38" s="9" t="s">
-        <v>333</v>
+        <v>102</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>334</v>
+        <v>107</v>
       </c>
       <c r="H38" s="15" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
     </row>
     <row r="39" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B39" s="8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D39" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E39" s="9" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="F39" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>332</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B40" s="8" t="s">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="D40" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E40" s="9" t="s">
-        <v>108</v>
+        <v>115</v>
       </c>
       <c r="F40" s="9" t="s">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
     </row>
     <row r="41" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B41" s="8" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D41" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="F41" s="9" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G41" s="9" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>115</v>
+        <v>122</v>
       </c>
     </row>
     <row r="42" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B42" s="11" t="s">
-        <v>116</v>
+        <v>123</v>
       </c>
       <c r="C42" s="11" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="D42" s="11" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>119</v>
+        <v>126</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>120</v>
+        <v>127</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>121</v>
+        <v>128</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>122</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B44" s="2" t="s">
-        <v>123</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -3270,301 +3281,301 @@
     </row>
     <row r="46" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B46" s="8" t="s">
-        <v>124</v>
+        <v>131</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>125</v>
+        <v>132</v>
       </c>
       <c r="D46" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E46" s="9" t="s">
-        <v>126</v>
+        <v>133</v>
       </c>
       <c r="F46" s="9" t="s">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>128</v>
+        <v>135</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>129</v>
+        <v>136</v>
       </c>
     </row>
     <row r="47" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B47" s="8" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D47" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E47" s="9" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="F47" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B48" s="8" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D48" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E48" s="9" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="F48" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>139</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B49" s="8" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E49" s="9" t="s">
-        <v>141</v>
+        <v>148</v>
       </c>
       <c r="F49" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B50" s="8" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D50" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E50" s="9" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
       <c r="F50" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>146</v>
+        <v>153</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
     </row>
     <row r="51" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B51" s="8" t="s">
-        <v>148</v>
+        <v>155</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D51" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E51" s="9" t="s">
-        <v>149</v>
+        <v>156</v>
       </c>
       <c r="F51" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>150</v>
+        <v>157</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>151</v>
+        <v>158</v>
       </c>
     </row>
     <row r="52" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B52" s="8" t="s">
-        <v>152</v>
+        <v>159</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D52" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E52" s="9" t="s">
-        <v>153</v>
+        <v>160</v>
       </c>
       <c r="F52" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
     </row>
     <row r="53" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B53" s="8" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D53" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E53" s="9" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="F53" s="9" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B54" s="8" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D54" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E54" s="9" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F54" s="9" t="s">
-        <v>164</v>
+        <v>171</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>165</v>
+        <v>172</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>166</v>
+        <v>173</v>
       </c>
     </row>
     <row r="55" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B55" s="8" t="s">
-        <v>167</v>
+        <v>174</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D55" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E55" s="9" t="s">
-        <v>168</v>
+        <v>175</v>
       </c>
       <c r="F55" s="9" t="s">
-        <v>169</v>
+        <v>176</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>171</v>
+        <v>178</v>
       </c>
     </row>
     <row r="56" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B56" s="11" t="s">
-        <v>172</v>
+        <v>179</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>22</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>173</v>
+        <v>180</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="G56" s="15" t="s">
-        <v>175</v>
+        <v>182</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>176</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B57" s="8" t="s">
-        <v>177</v>
+        <v>184</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D57" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E57" s="9" t="s">
-        <v>178</v>
+        <v>185</v>
       </c>
       <c r="F57" s="9" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>179</v>
+        <v>186</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
     </row>
     <row r="58" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B58" s="8" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="D58" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E58" s="9" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="F58" s="9" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>185</v>
+        <v>192</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>186</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -3578,7 +3589,7 @@
     </row>
     <row r="60" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B60" s="2" t="s">
-        <v>187</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -3606,186 +3617,186 @@
     </row>
     <row r="62" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B62" s="8" t="s">
-        <v>188</v>
+        <v>195</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>189</v>
+        <v>196</v>
       </c>
       <c r="D62" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E62" s="8" t="s">
-        <v>190</v>
+        <v>197</v>
       </c>
       <c r="F62" s="8" t="s">
         <v>24</v>
       </c>
       <c r="G62" s="23" t="s">
-        <v>191</v>
+        <v>198</v>
       </c>
       <c r="H62" s="26" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
     </row>
     <row r="63" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B63" s="8" t="s">
-        <v>193</v>
+        <v>200</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>194</v>
+        <v>201</v>
       </c>
       <c r="D63" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E63" s="17" t="s">
-        <v>195</v>
+        <v>202</v>
       </c>
       <c r="F63" s="8" t="s">
-        <v>196</v>
+        <v>203</v>
       </c>
       <c r="G63" s="23" t="s">
-        <v>197</v>
+        <v>204</v>
       </c>
       <c r="H63" s="26" t="s">
-        <v>198</v>
+        <v>205</v>
       </c>
     </row>
     <row r="64" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B64" s="8" t="s">
-        <v>199</v>
+        <v>206</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
       <c r="D64" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
       <c r="F64" s="8" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G64" s="23" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="H64" s="26" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
     </row>
     <row r="65" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B65" s="8" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="D65" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E65" s="8" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="F65" s="8" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="G65" s="23" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="H65" s="26" t="s">
-        <v>210</v>
+        <v>217</v>
       </c>
     </row>
     <row r="66" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B66" s="8" t="s">
-        <v>211</v>
+        <v>218</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="D66" s="8" t="s">
         <v>22</v>
       </c>
       <c r="E66" s="8" t="s">
-        <v>213</v>
+        <v>220</v>
       </c>
       <c r="F66" s="8" t="s">
-        <v>214</v>
+        <v>221</v>
       </c>
       <c r="G66" s="23" t="s">
-        <v>215</v>
+        <v>222</v>
       </c>
       <c r="H66" s="26" t="s">
-        <v>216</v>
+        <v>223</v>
       </c>
     </row>
     <row r="67" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B67" s="19" t="s">
-        <v>217</v>
+        <v>224</v>
       </c>
       <c r="C67" s="19" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="D67" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E67" s="19" t="s">
-        <v>219</v>
+        <v>226</v>
       </c>
       <c r="F67" s="19" t="s">
-        <v>220</v>
+        <v>227</v>
       </c>
       <c r="G67" s="24" t="s">
-        <v>221</v>
+        <v>228</v>
       </c>
       <c r="H67" s="26" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="68" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B68" s="19" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="C68" s="18" t="s">
-        <v>224</v>
+        <v>231</v>
       </c>
       <c r="D68" s="19" t="s">
         <v>22</v>
       </c>
       <c r="E68" s="18" t="s">
-        <v>225</v>
+        <v>232</v>
       </c>
       <c r="F68" s="18" t="s">
-        <v>202</v>
+        <v>209</v>
       </c>
       <c r="G68" s="25" t="s">
-        <v>226</v>
+        <v>233</v>
       </c>
       <c r="H68" s="26" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
     </row>
     <row r="69" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B69" s="18" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="C69" s="22" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="D69" s="18" t="s">
         <v>22</v>
       </c>
       <c r="E69" s="21" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="F69" s="18" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="G69" s="25" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="H69" s="26" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
     </row>
     <row r="70" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -3799,7 +3810,7 @@
     </row>
     <row r="71" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B71" s="2" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="72" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -3827,122 +3838,122 @@
     </row>
     <row r="73" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B73" s="8" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D73" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="F73" s="16" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
       <c r="G73" s="16" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="H73" s="16" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
     </row>
     <row r="74" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B74" s="8" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D74" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="F74" s="16" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="G74" s="16" t="s">
-        <v>244</v>
+        <v>251</v>
       </c>
       <c r="H74" s="16" t="s">
-        <v>245</v>
+        <v>252</v>
       </c>
     </row>
     <row r="75" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B75" s="8" t="s">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D75" s="16" t="s">
         <v>22</v>
       </c>
       <c r="E75" s="16" t="s">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="F75" s="16" t="s">
-        <v>248</v>
+        <v>332</v>
       </c>
       <c r="G75" s="16" t="s">
-        <v>249</v>
+        <v>333</v>
       </c>
       <c r="H75" s="16" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
     </row>
     <row r="76" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B76" s="8" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D76" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E76" s="16" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="F76" s="16" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="G76" s="16" t="s">
-        <v>254</v>
+        <v>259</v>
       </c>
       <c r="H76" s="16" t="s">
-        <v>255</v>
+        <v>260</v>
       </c>
     </row>
     <row r="77" spans="2:8" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B77" s="8" t="s">
-        <v>256</v>
+        <v>261</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="D77" s="16" t="s">
         <v>28</v>
       </c>
       <c r="E77" s="16" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="F77" s="16" t="s">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="G77" s="16" t="s">
-        <v>259</v>
+        <v>264</v>
       </c>
       <c r="H77" s="16" t="s">
-        <v>260</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B79" s="2" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
     </row>
     <row r="80" spans="2:8" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -3970,122 +3981,122 @@
     </row>
     <row r="81" spans="2:9" ht="180" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B81" s="30" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="C81" s="30" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="D81" s="30" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E81" s="31" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="F81" s="31" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="G81" s="31" t="s">
-        <v>267</v>
+        <v>272</v>
       </c>
       <c r="H81" s="31" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="82" spans="2:9" ht="192" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B82" s="30" t="s">
+        <v>274</v>
+      </c>
+      <c r="C82" s="30" t="s">
+        <v>275</v>
+      </c>
+      <c r="D82" s="30" t="s">
         <v>269</v>
       </c>
-      <c r="C82" s="30" t="s">
-        <v>270</v>
-      </c>
-      <c r="D82" s="30" t="s">
-        <v>264</v>
-      </c>
       <c r="E82" s="31" t="s">
+        <v>276</v>
+      </c>
+      <c r="F82" s="31" t="s">
         <v>271</v>
       </c>
-      <c r="F82" s="31" t="s">
-        <v>266</v>
-      </c>
       <c r="G82" s="31" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="H82" s="31" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="2:9" ht="192" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B83" s="30" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C83" s="30" t="s">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="D83" s="30" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E83" s="31" t="s">
-        <v>276</v>
+        <v>281</v>
       </c>
       <c r="F83" s="31" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G83" s="31" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="H83" s="31" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
     </row>
     <row r="84" spans="2:9" ht="203.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B84" s="30" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="C84" s="30" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="D84" s="30" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E84" s="31" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="F84" s="31" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="G84" s="31" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="H84" s="31" t="s">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="85" spans="2:9" ht="153" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B85" s="30" t="s">
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="C85" s="30" t="s">
-        <v>287</v>
+        <v>292</v>
       </c>
       <c r="D85" s="30" t="s">
-        <v>264</v>
+        <v>269</v>
       </c>
       <c r="E85" s="31" t="s">
-        <v>288</v>
+        <v>293</v>
       </c>
       <c r="F85" s="31" t="s">
-        <v>289</v>
+        <v>294</v>
       </c>
       <c r="G85" s="31" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H85" s="31" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
     </row>
     <row r="87" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="B87" s="2" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="88" spans="2:9" ht="18" x14ac:dyDescent="0.55000000000000004">
@@ -4113,140 +4124,140 @@
     </row>
     <row r="89" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B89" s="8" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="D89" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E89" s="9" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="F89" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G89" s="10" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
       <c r="H89" s="10" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="90" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B90" s="8" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>299</v>
+        <v>304</v>
       </c>
       <c r="D90" s="8" t="s">
         <v>28</v>
       </c>
       <c r="E90" s="9" t="s">
-        <v>300</v>
+        <v>305</v>
       </c>
       <c r="F90" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G90" s="10" t="s">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="H90" s="10" t="s">
-        <v>302</v>
+        <v>307</v>
       </c>
     </row>
     <row r="91" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B91" s="8" t="s">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>131</v>
+        <v>138</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E91" s="9" t="s">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="F91" s="9" t="s">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="G91" s="10" t="s">
-        <v>306</v>
+        <v>311</v>
       </c>
       <c r="H91" s="10" t="s">
-        <v>307</v>
+        <v>312</v>
       </c>
     </row>
     <row r="92" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B92" s="11" t="s">
-        <v>308</v>
+        <v>313</v>
       </c>
       <c r="C92" s="11" t="s">
-        <v>309</v>
+        <v>314</v>
       </c>
       <c r="D92" s="11" t="s">
-        <v>310</v>
+        <v>315</v>
       </c>
       <c r="E92" s="10" t="s">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="F92" s="10" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
       <c r="G92" s="10" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="H92" s="10" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
     </row>
     <row r="93" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B93" s="8" t="s">
+        <v>320</v>
+      </c>
+      <c r="C93" s="8" t="s">
+        <v>321</v>
+      </c>
+      <c r="D93" s="8" t="s">
         <v>315</v>
       </c>
-      <c r="C93" s="8" t="s">
-        <v>316</v>
-      </c>
-      <c r="D93" s="8" t="s">
-        <v>310</v>
-      </c>
       <c r="E93" s="9" t="s">
-        <v>317</v>
+        <v>322</v>
       </c>
       <c r="F93" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G93" s="9" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="94" spans="2:9" ht="50.25" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="B94" s="8" t="s">
-        <v>320</v>
+        <v>325</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="E94" s="9" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="F94" s="9" t="s">
         <v>45</v>
       </c>
       <c r="G94" s="10" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="H94" s="9" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="I94" s="27"/>
     </row>
@@ -4257,20 +4268,20 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="6d91bb22-1267-46fa-8e61-645dc3a0f267" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4424,25 +4435,25 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD63C88E-B181-4E7E-99E9-22F3DCB37E93}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350613E8-C7A8-47A8-A984-080AEEB682C2}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{350613E8-C7A8-47A8-A984-080AEEB682C2}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FD63C88E-B181-4E7E-99E9-22F3DCB37E93}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6d91bb22-1267-46fa-8e61-645dc3a0f267"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
